--- a/results/graphiques_2000_2010.xlsx
+++ b/results/graphiques_2000_2010.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/hugo_demenez_student_junia_com/Documents/MFE/Memoire_M2_2023/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C982696D-EF92-1248-B958-6C6F8C17A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DA70766D-A1A1-CD45-95CA-5D4F21B85DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{355454FD-F2AD-FF4E-84B1-EADE34E2C495}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{8C826F5C-FF06-B64A-896B-BC6D26E22854}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{8C826F5C-FF06-B64A-896B-BC6D26E22854}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphiques" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -145,142 +146,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="21"/>
-              <c:pt idx="0">
-                <c:v>3.1789196050220951E-2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2.839659457580208E-2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2.8189586177459001E-2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2.8029477371121079E-2</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2.791707509800901E-2</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>3.1243427994882701E-2</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2.7852956931813291E-2</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2.7837456513677791E-2</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2.7870654960804989E-2</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2.795237875790664E-2</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2.8947057799684851E-2</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2.8082204258116601E-2</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2.8259468523869648E-2</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2.864948595763005E-2</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>3.0732120781217519E-2</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2.875256917614891E-2</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2.9066054805389069E-2</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>3.0257021499796519E-2</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2.9422329907035211E-2</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2.8483285870777999E-2</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2.981986082889793E-2</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.9493816030783111E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5946509483569351E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.589796185441803E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.587989558544369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.589237448135424E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.907777022501672E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5935354451415159E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6008684284812171E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.611210829102412E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6245270698660079E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6134262704790408E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6407721638913861E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6598924484636841E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.602536789399252E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8683266061045039E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7065056942623261E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7338559020080269E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.831120407307269E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7637977580677361E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6818264276218671E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.796248010592544E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="21"/>
-              <c:pt idx="0">
-                <c:v>9.6916969381002026E-4</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1.95413193437077E-3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>1.8994118098951741E-3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>1.844691685419576E-3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>1.789971560943979E-3</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1.023889818285617E-3</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1.735251436468382E-3</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>1.680531311992785E-3</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>1.6258111875171869E-3</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>1.5710910630415899E-3</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2.0635721833219649E-3</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>1.5163709385659929E-3</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>1.4616508140903959E-3</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2.008852058846369E-3</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>1.0786099427612149E-3</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>1.352210565139201E-3</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>1.297490440663604E-3</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>1.1333300672368119E-3</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>1.2427703161880059E-3</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>1.406930689614798E-3</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>1.1880501917124089E-3</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.37027310019381E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6345235813497048E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.2494239936046131E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8643244058595197E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4792248181144362E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3087830589683189E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0941252303693526E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.7090256426242604E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.3239260548791682E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.9388264671340792E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.40472275683988E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.5537268793889913E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.1686272916439056E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.019623169094794E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.2472930177428281E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.3984281161537287E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0013328528408641E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.185802976517337E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.062822894066355E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.7835277038988187E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1243129352918461E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -318,1276 +325,1282 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="210"/>
-              <c:pt idx="0">
-                <c:v>2.7576112966183109E-2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2.696799696483099E-2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2.6802665188419349E-2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3.0175330542668691E-2</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2.6687178749312639E-2</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2.6622186339234181E-2</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2.9643732223417221E-2</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2.664487454860406E-2</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2.9148993025418561E-2</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2.6732425592483129E-2</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2.8693019641474131E-2</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2.687021518135518E-2</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2.8277687412234149E-2</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2.718226456488947E-2</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2.7444321834289211E-2</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2.7293189224151752E-2</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2.7904811092532351E-2</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2.6608057968441349E-2</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2.7057475810113911E-2</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2.858696589235897E-2</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2.6160106085047659E-2</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2.665979240757857E-2</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2.8442687092290472E-2</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2.6213298929468821E-2</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2.654818018029436E-2</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2.6355552205969621E-2</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2.67900962517316E-2</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2.7237902927307631E-2</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2.6276154522769771E-2</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2.7596226905872229E-2</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2.7998442286870599E-2</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2.6082921626948721E-2</c:v>
-              </c:pt>
-              <c:pt idx="32">
-                <c:v>2.6095567664745401E-2</c:v>
-              </c:pt>
-              <c:pt idx="33">
-                <c:v>2.892702499491704E-2</c:v>
-              </c:pt>
-              <c:pt idx="34">
-                <c:v>2.944947789980407E-2</c:v>
-              </c:pt>
-              <c:pt idx="35">
-                <c:v>2.6443034812893298E-2</c:v>
-              </c:pt>
-              <c:pt idx="36">
-                <c:v>2.612224333662172E-2</c:v>
-              </c:pt>
-              <c:pt idx="37">
-                <c:v>2.692522274378369E-2</c:v>
-              </c:pt>
-              <c:pt idx="38">
-                <c:v>2.6207259853015169E-2</c:v>
-              </c:pt>
-              <c:pt idx="39">
-                <c:v>2.563455558169497E-2</c:v>
-              </c:pt>
-              <c:pt idx="40">
-                <c:v>2.5662449419961729E-2</c:v>
-              </c:pt>
-              <c:pt idx="41">
-                <c:v>2.5699882799777401E-2</c:v>
-              </c:pt>
-              <c:pt idx="42">
-                <c:v>2.5900632628272219E-2</c:v>
-              </c:pt>
-              <c:pt idx="43">
-                <c:v>2.736818869352288E-2</c:v>
-              </c:pt>
-              <c:pt idx="44">
-                <c:v>2.5755498765204759E-2</c:v>
-              </c:pt>
-              <c:pt idx="45">
-                <c:v>2.6638502532477241E-2</c:v>
-              </c:pt>
-              <c:pt idx="46">
-                <c:v>2.6980686815286821E-2</c:v>
-              </c:pt>
-              <c:pt idx="47">
-                <c:v>2.609698204645242E-2</c:v>
-              </c:pt>
-              <c:pt idx="48">
-                <c:v>2.878323316291323E-2</c:v>
-              </c:pt>
-              <c:pt idx="49">
-                <c:v>2.8271474625623811E-2</c:v>
-              </c:pt>
-              <c:pt idx="50">
-                <c:v>2.5987092767151151E-2</c:v>
-              </c:pt>
-              <c:pt idx="51">
-                <c:v>2.6343401845792151E-2</c:v>
-              </c:pt>
-              <c:pt idx="52">
-                <c:v>2.581763272380844E-2</c:v>
-              </c:pt>
-              <c:pt idx="53">
-                <c:v>2.7799113136786211E-2</c:v>
-              </c:pt>
-              <c:pt idx="54">
-                <c:v>2.5622052051067431E-2</c:v>
-              </c:pt>
-              <c:pt idx="55">
-                <c:v>2.643567230347366E-2</c:v>
-              </c:pt>
-              <c:pt idx="56">
-                <c:v>2.5700669960592368E-2</c:v>
-              </c:pt>
-              <c:pt idx="57">
-                <c:v>2.5228595648544471E-2</c:v>
-              </c:pt>
-              <c:pt idx="58">
-                <c:v>2.5835317093917211E-2</c:v>
-              </c:pt>
-              <c:pt idx="59">
-                <c:v>2.5434878385818909E-2</c:v>
-              </c:pt>
-              <c:pt idx="60">
-                <c:v>2.7222720673760331E-2</c:v>
-              </c:pt>
-              <c:pt idx="61">
-                <c:v>2.5358981494428279E-2</c:v>
-              </c:pt>
-              <c:pt idx="62">
-                <c:v>2.5243871684254088E-2</c:v>
-              </c:pt>
-              <c:pt idx="63">
-                <c:v>2.5312777886125008E-2</c:v>
-              </c:pt>
-              <c:pt idx="64">
-                <c:v>2.680679618613848E-2</c:v>
-              </c:pt>
-              <c:pt idx="65">
-                <c:v>2.5503820609569121E-2</c:v>
-              </c:pt>
-              <c:pt idx="66">
-                <c:v>2.5267047050898411E-2</c:v>
-              </c:pt>
-              <c:pt idx="67">
-                <c:v>2.5609412335670292E-2</c:v>
-              </c:pt>
-              <c:pt idx="68">
-                <c:v>2.8180824359447909E-2</c:v>
-              </c:pt>
-              <c:pt idx="69">
-                <c:v>2.611125937207941E-2</c:v>
-              </c:pt>
-              <c:pt idx="70">
-                <c:v>2.7681426399047301E-2</c:v>
-              </c:pt>
-              <c:pt idx="71">
-                <c:v>2.5274911660311431E-2</c:v>
-              </c:pt>
-              <c:pt idx="72">
-                <c:v>2.5050047784104561E-2</c:v>
-              </c:pt>
-              <c:pt idx="73">
-                <c:v>2.4952140579677321E-2</c:v>
-              </c:pt>
-              <c:pt idx="74">
-                <c:v>2.6717858037259689E-2</c:v>
-              </c:pt>
-              <c:pt idx="75">
-                <c:v>2.631867167419186E-2</c:v>
-              </c:pt>
-              <c:pt idx="76">
-                <c:v>2.5965624713773811E-2</c:v>
-              </c:pt>
-              <c:pt idx="77">
-                <c:v>2.5660621628227531E-2</c:v>
-              </c:pt>
-              <c:pt idx="78">
-                <c:v>2.498396447726951E-2</c:v>
-              </c:pt>
-              <c:pt idx="79">
-                <c:v>2.7161149552113951E-2</c:v>
-              </c:pt>
-              <c:pt idx="80">
-                <c:v>2.4918991011189669E-2</c:v>
-              </c:pt>
-              <c:pt idx="81">
-                <c:v>2.5405392840998572E-2</c:v>
-              </c:pt>
-              <c:pt idx="82">
-                <c:v>2.7646424712308149E-2</c:v>
-              </c:pt>
-              <c:pt idx="83">
-                <c:v>2.5201450671573429E-2</c:v>
-              </c:pt>
-              <c:pt idx="84">
-                <c:v>2.4908359892171199E-2</c:v>
-              </c:pt>
-              <c:pt idx="85">
-                <c:v>2.510285833276886E-2</c:v>
-              </c:pt>
-              <c:pt idx="86">
-                <c:v>2.6288646652967731E-2</c:v>
-              </c:pt>
-              <c:pt idx="87">
-                <c:v>2.5574677924546461E-2</c:v>
-              </c:pt>
-              <c:pt idx="88">
-                <c:v>2.5057652503686721E-2</c:v>
-              </c:pt>
-              <c:pt idx="89">
-                <c:v>2.4877013873312079E-2</c:v>
-              </c:pt>
-              <c:pt idx="90">
-                <c:v>2.5907956753678879E-2</c:v>
-              </c:pt>
-              <c:pt idx="91">
-                <c:v>2.5290684574086921E-2</c:v>
-              </c:pt>
-              <c:pt idx="92">
-                <c:v>2.4749915898812491E-2</c:v>
-              </c:pt>
-              <c:pt idx="93">
-                <c:v>2.718404540712142E-2</c:v>
-              </c:pt>
-              <c:pt idx="94">
-                <c:v>2.467718586531913E-2</c:v>
-              </c:pt>
-              <c:pt idx="95">
-                <c:v>2.4788200476405321E-2</c:v>
-              </c:pt>
-              <c:pt idx="96">
-                <c:v>2.4659304835145009E-2</c:v>
-              </c:pt>
-              <c:pt idx="97">
-                <c:v>2.4696391946225481E-2</c:v>
-              </c:pt>
-              <c:pt idx="98">
-                <c:v>2.671472084874878E-2</c:v>
-              </c:pt>
-              <c:pt idx="99">
-                <c:v>2.4934125973115961E-2</c:v>
-              </c:pt>
-              <c:pt idx="100">
-                <c:v>2.4681832838006641E-2</c:v>
-              </c:pt>
-              <c:pt idx="101">
-                <c:v>2.453759090739159E-2</c:v>
-              </c:pt>
-              <c:pt idx="102">
-                <c:v>2.500503024658645E-2</c:v>
-              </c:pt>
-              <c:pt idx="103">
-                <c:v>2.5266503965524649E-2</c:v>
-              </c:pt>
-              <c:pt idx="104">
-                <c:v>2.4563163982583271E-2</c:v>
-              </c:pt>
-              <c:pt idx="105">
-                <c:v>2.6797414754923671E-2</c:v>
-              </c:pt>
-              <c:pt idx="106">
-                <c:v>2.4639401577189739E-2</c:v>
-              </c:pt>
-              <c:pt idx="107">
-                <c:v>2.5938842208507808E-2</c:v>
-              </c:pt>
-              <c:pt idx="108">
-                <c:v>2.5578380619869719E-2</c:v>
-              </c:pt>
-              <c:pt idx="109">
-                <c:v>2.4795554039251051E-2</c:v>
-              </c:pt>
-              <c:pt idx="110">
-                <c:v>2.449934335681539E-2</c:v>
-              </c:pt>
-              <c:pt idx="111">
-                <c:v>2.449079975180227E-2</c:v>
-              </c:pt>
-              <c:pt idx="112">
-                <c:v>2.6345894605966431E-2</c:v>
-              </c:pt>
-              <c:pt idx="113">
-                <c:v>2.4415363720546281E-2</c:v>
-              </c:pt>
-              <c:pt idx="114">
-                <c:v>2.5671690924420759E-2</c:v>
-              </c:pt>
-              <c:pt idx="115">
-                <c:v>2.5333110244247631E-2</c:v>
-              </c:pt>
-              <c:pt idx="116">
-                <c:v>2.4520763895866032E-2</c:v>
-              </c:pt>
-              <c:pt idx="117">
-                <c:v>2.439501240545074E-2</c:v>
-              </c:pt>
-              <c:pt idx="118">
-                <c:v>2.6489849715055171E-2</c:v>
-              </c:pt>
-              <c:pt idx="119">
-                <c:v>2.6057966203805221E-2</c:v>
-              </c:pt>
-              <c:pt idx="120">
-                <c:v>2.4491141019538559E-2</c:v>
-              </c:pt>
-              <c:pt idx="121">
-                <c:v>2.5044158637560709E-2</c:v>
-              </c:pt>
-              <c:pt idx="122">
-                <c:v>2.480657043138559E-2</c:v>
-              </c:pt>
-              <c:pt idx="123">
-                <c:v>2.4430225590557051E-2</c:v>
-              </c:pt>
-              <c:pt idx="124">
-                <c:v>2.4621832562974809E-2</c:v>
-              </c:pt>
-              <c:pt idx="125">
-                <c:v>3.0956598419003108E-2</c:v>
-              </c:pt>
-              <c:pt idx="126">
-                <c:v>2.7374725446334468E-2</c:v>
-              </c:pt>
-              <c:pt idx="127">
-                <c:v>3.0417273591474621E-2</c:v>
-              </c:pt>
-              <c:pt idx="128">
-                <c:v>2.9913587669981982E-2</c:v>
-              </c:pt>
-              <c:pt idx="129">
-                <c:v>2.9447369480628691E-2</c:v>
-              </c:pt>
-              <c:pt idx="130">
-                <c:v>2.9020424856564569E-2</c:v>
-              </c:pt>
-              <c:pt idx="131">
-                <c:v>2.723518984618397E-2</c:v>
-              </c:pt>
-              <c:pt idx="132">
-                <c:v>2.7992381327128418E-2</c:v>
-              </c:pt>
-              <c:pt idx="133">
-                <c:v>2.8291305738209819E-2</c:v>
-              </c:pt>
-              <c:pt idx="134">
-                <c:v>2.8634510575007991E-2</c:v>
-              </c:pt>
-              <c:pt idx="135">
-                <c:v>2.7265392262064321E-2</c:v>
-              </c:pt>
-              <c:pt idx="136">
-                <c:v>2.8164962281254011E-2</c:v>
-              </c:pt>
-              <c:pt idx="137">
-                <c:v>2.773916891043705E-2</c:v>
-              </c:pt>
-              <c:pt idx="138">
-                <c:v>2.7195433468727472E-2</c:v>
-              </c:pt>
-              <c:pt idx="139">
-                <c:v>2.732457095456885E-2</c:v>
-              </c:pt>
-              <c:pt idx="140">
-                <c:v>2.7463092273681391E-2</c:v>
-              </c:pt>
-              <c:pt idx="141">
-                <c:v>2.7532929717122949E-2</c:v>
-              </c:pt>
-              <c:pt idx="142">
-                <c:v>2.7884366560123521E-2</c:v>
-              </c:pt>
-              <c:pt idx="143">
-                <c:v>2.720551937813661E-2</c:v>
-              </c:pt>
-              <c:pt idx="144">
-                <c:v>2.765001526404812E-2</c:v>
-              </c:pt>
-              <c:pt idx="145">
-                <c:v>2.4452721881699141E-2</c:v>
-              </c:pt>
-              <c:pt idx="146">
-                <c:v>2.4909940357507609E-2</c:v>
-              </c:pt>
-              <c:pt idx="147">
-                <c:v>2.4390891241796771E-2</c:v>
-              </c:pt>
-              <c:pt idx="148">
-                <c:v>2.4538365164223131E-2</c:v>
-              </c:pt>
-              <c:pt idx="149">
-                <c:v>2.626412811864999E-2</c:v>
-              </c:pt>
-              <c:pt idx="150">
-                <c:v>2.517460986167069E-2</c:v>
-              </c:pt>
-              <c:pt idx="151">
-                <c:v>2.4697407212696039E-2</c:v>
-              </c:pt>
-              <c:pt idx="152">
-                <c:v>2.4433858768595551E-2</c:v>
-              </c:pt>
-              <c:pt idx="153">
-                <c:v>2.4384589215372759E-2</c:v>
-              </c:pt>
-              <c:pt idx="154">
-                <c:v>2.5853638627792119E-2</c:v>
-              </c:pt>
-              <c:pt idx="155">
-                <c:v>2.5489791726256868E-2</c:v>
-              </c:pt>
-              <c:pt idx="156">
-                <c:v>2.573490325301651E-2</c:v>
-              </c:pt>
-              <c:pt idx="157">
-                <c:v>2.4546072570458152E-2</c:v>
-              </c:pt>
-              <c:pt idx="158">
-                <c:v>2.4468193797995579E-2</c:v>
-              </c:pt>
-              <c:pt idx="159">
-                <c:v>2.6122371662377051E-2</c:v>
-              </c:pt>
-              <c:pt idx="160">
-                <c:v>2.539497661162075E-2</c:v>
-              </c:pt>
-              <c:pt idx="161">
-                <c:v>2.4678725595541032E-2</c:v>
-              </c:pt>
-              <c:pt idx="162">
-                <c:v>2.4478482559261449E-2</c:v>
-              </c:pt>
-              <c:pt idx="163">
-                <c:v>2.444561278279244E-2</c:v>
-              </c:pt>
-              <c:pt idx="164">
-                <c:v>2.5104523023855591E-2</c:v>
-              </c:pt>
-              <c:pt idx="165">
-                <c:v>2.4865276248087639E-2</c:v>
-              </c:pt>
-              <c:pt idx="166">
-                <c:v>2.47507304647386E-2</c:v>
-              </c:pt>
-              <c:pt idx="167">
-                <c:v>2.512358967884783E-2</c:v>
-              </c:pt>
-              <c:pt idx="168">
-                <c:v>2.4644869240137628E-2</c:v>
-              </c:pt>
-              <c:pt idx="169">
-                <c:v>2.4910648018481609E-2</c:v>
-              </c:pt>
-              <c:pt idx="170">
-                <c:v>2.4597751217902471E-2</c:v>
-              </c:pt>
-              <c:pt idx="171">
-                <c:v>2.538822127462698E-2</c:v>
-              </c:pt>
-              <c:pt idx="172">
-                <c:v>2.459376239367839E-2</c:v>
-              </c:pt>
-              <c:pt idx="173">
-                <c:v>2.6065950284417091E-2</c:v>
-              </c:pt>
-              <c:pt idx="174">
-                <c:v>2.5702946292509351E-2</c:v>
-              </c:pt>
-              <c:pt idx="175">
-                <c:v>2.4809179292048251E-2</c:v>
-              </c:pt>
-              <c:pt idx="176">
-                <c:v>2.5045566354856059E-2</c:v>
-              </c:pt>
-              <c:pt idx="177">
-                <c:v>2.4912635500567021E-2</c:v>
-              </c:pt>
-              <c:pt idx="178">
-                <c:v>2.5231607716805701E-2</c:v>
-              </c:pt>
-              <c:pt idx="179">
-                <c:v>2.5758090735086839E-2</c:v>
-              </c:pt>
-              <c:pt idx="180">
-                <c:v>2.483366804603403E-2</c:v>
-              </c:pt>
-              <c:pt idx="181">
-                <c:v>2.5469595784030911E-2</c:v>
-              </c:pt>
-              <c:pt idx="182">
-                <c:v>2.6095417504226542E-2</c:v>
-              </c:pt>
-              <c:pt idx="183">
-                <c:v>2.621048364181645E-2</c:v>
-              </c:pt>
-              <c:pt idx="184">
-                <c:v>2.5162705422071181E-2</c:v>
-              </c:pt>
-              <c:pt idx="185">
-                <c:v>2.511043896282155E-2</c:v>
-              </c:pt>
-              <c:pt idx="186">
-                <c:v>2.5268596931728511E-2</c:v>
-              </c:pt>
-              <c:pt idx="187">
-                <c:v>2.5899780231618919E-2</c:v>
-              </c:pt>
-              <c:pt idx="188">
-                <c:v>2.542744354287851E-2</c:v>
-              </c:pt>
-              <c:pt idx="189">
-                <c:v>2.5638260994893421E-2</c:v>
-              </c:pt>
-              <c:pt idx="190">
-                <c:v>2.5498346382845979E-2</c:v>
-              </c:pt>
-              <c:pt idx="191">
-                <c:v>2.5709090411868422E-2</c:v>
-              </c:pt>
-              <c:pt idx="192">
-                <c:v>2.641002988040355E-2</c:v>
-              </c:pt>
-              <c:pt idx="193">
-                <c:v>2.589251111442201E-2</c:v>
-              </c:pt>
-              <c:pt idx="194">
-                <c:v>2.6126606769789212E-2</c:v>
-              </c:pt>
-              <c:pt idx="195">
-                <c:v>2.5577434884848541E-2</c:v>
-              </c:pt>
-              <c:pt idx="196">
-                <c:v>2.6436378989719421E-2</c:v>
-              </c:pt>
-              <c:pt idx="197">
-                <c:v>2.6692161608935588E-2</c:v>
-              </c:pt>
-              <c:pt idx="198">
-                <c:v>2.6073767698835189E-2</c:v>
-              </c:pt>
-              <c:pt idx="199">
-                <c:v>2.59690189881524E-2</c:v>
-              </c:pt>
-              <c:pt idx="200">
-                <c:v>2.6229857496877621E-2</c:v>
-              </c:pt>
-              <c:pt idx="201">
-                <c:v>2.6518050112100299E-2</c:v>
-              </c:pt>
-              <c:pt idx="202">
-                <c:v>2.664714439354416E-2</c:v>
-              </c:pt>
-              <c:pt idx="203">
-                <c:v>2.6826223632871009E-2</c:v>
-              </c:pt>
-              <c:pt idx="204">
-                <c:v>2.7054295258962229E-2</c:v>
-              </c:pt>
-              <c:pt idx="205">
-                <c:v>2.749326972348912E-2</c:v>
-              </c:pt>
-              <c:pt idx="206">
-                <c:v>2.7292709690343701E-2</c:v>
-              </c:pt>
-              <c:pt idx="207">
-                <c:v>2.7140684808643331E-2</c:v>
-              </c:pt>
-              <c:pt idx="208">
-                <c:v>2.783198371675652E-2</c:v>
-              </c:pt>
-              <c:pt idx="209">
-                <c:v>2.800547188936095E-2</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng'!$A$23:$A$232</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>2.674659259894838E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5640799135072469E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5614972637368821E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8741080066173801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.562000311494543E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5655872416955799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8348739626526578E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.581950289241897E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7979168803301209E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.594668456436872E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7633281182358499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6103556148975339E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7311976573503292E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5697389572206589E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5784541392761099E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.650416064523348E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7016132093039089E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.572245153186322E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6289586166982661E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3792518631448588E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5827927002194939E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.633186620986841E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.772735091758138E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.557685611329244E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5636134793618561E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5591067605006301E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5711895430282791E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6810412567012231E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5966557493244471E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7090330086137111E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.739626324532168E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5641094048384688E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.571931204134531E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8082703421769741E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.846141190299762E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6134725870723619E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5593551718836659E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.655733332470693E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5708343464430069E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5636567337384331E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.578526471137434E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.560825412540842E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6054791142928239E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7229743670620841E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5905120384478231E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.66771763951014E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.694020403889353E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6233766682227572E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8248910444671191E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7884980082378288E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5644206924214461E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6441451938994089E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.561080372279232E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.75449592583989E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5695641338671131E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.6862797560858059E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5773914061254479E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5748701819475011E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6399914727547061E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6050471710171191E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7433378607894542E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.569984744653759E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5819074903986401E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.591978213403278E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.7135020371938989E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5721540693974729E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.570891198295739E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6210695149838609E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8105099266273512E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6617512063947291E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.7757029498331889E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5908082400542098E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6121805083116359E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.6010414054263291E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.7393474273965188E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.711284585690792E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6858739389463988E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6631914054203461E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5857482775934242E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.769981856628264E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5878021497555088E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6433072168373751E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8031035619116879E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6262849346464091E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5929058432900151E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5867514914583271E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7425559126657319E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.692806268641924E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.6540644313057471E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.6389783269467039E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7163397799105149E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6720262602819931E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6268174944888999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.8027272444003309E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.61762270453514E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6080977077653701E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.611425287449206E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.608246609361714E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.771378538373569E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6109791010158388E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6377490494729341E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6488337409647698E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6881828631882751E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7070203696192979E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6360287708568901E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8093837991233089E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.6590426019168851E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.7529381461962359E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.7286271991268589E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.672173247570377E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.63730738600217E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6415805402115439E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.779882266650199E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6780472590610969E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.7704134774502051E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.7480498322039641E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6709196698692501E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.672716553269637E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.8230234769870289E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.795428183031293E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.6863126035690969E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.728402437178417E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.711530337800486E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6703380612133731E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.6974856109180819E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.9085977530167478E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.6140500304930401E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.8681187824202741E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.8298559585208969E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.7939003340432339E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.760342069715991E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.5739857036056722E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6749216335798569E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7007687195421379E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.7292695985936279E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.5995329138140379E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.592570053704903E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.6518059412061399E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.5794657955137461E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.571570716350963E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.5722294669620019E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.6314936231207599E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.5827477998818311E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.5879915210005489E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.5759595972972539E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.7102559603548081E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.75678568870328E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.7107834097156329E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.729801141797723E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.8435457916189968E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.7744578326780071E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.741884996905684E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.7205716579333489E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.714225663578226E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.8178997379441649E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.7948488567119099E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.8471329502319901E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.768874649199736E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.7615596651850559E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.8708031425054299E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.8260637509194251E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7790172356916609E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7554938779152209E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.7570947898937812E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.807654100296407E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.7919566085897671E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.8226595885541921E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.8474012230602259E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.8144246781131921E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.833662466072432E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.8063480369802621E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.8638364850718061E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.808982078863188E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.9046059274150701E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.8829221349281009E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.8625191267383499E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.8816195334530351E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.8725153447829121E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.893429245692606E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.9250266549880971E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.866142461765446E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.907911518386842E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9447287482383219E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.9909172680631729E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.9282671592155699E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.9237007114388439E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.9355214521613091E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.9731782195647261E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.9454437307720641E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.958007146860208E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.9895851889582149E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.0031336365587191E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.042895283223937E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.013823163285469E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.027088273368991E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.995047270610459E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.0864550864726371E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.1003716231292749E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.0661786320250659E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.0598687891564641E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.0750480865844618E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.1342555837893277E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.1413656754074738E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.1509702447703833E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.1630465685656278E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.2306175702015702E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.2203243412138788E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.2124605483990799E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.2942117628306247E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.3027841393960589E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="210"/>
-              <c:pt idx="0">
-                <c:v>1.4033753874814581E-3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1.9505766322374309E-3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>1.8958565077618319E-3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>1.075054640627875E-3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>1.841136383286236E-3</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1.786416258810639E-3</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1.129774765103472E-3</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>1.6769760098594439E-3</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>1.1844948895790681E-3</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>1.6222558853838461E-3</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>1.239215014054666E-3</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>1.5675357609082491E-3</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>1.293935138530263E-3</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2.005296756713027E-3</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2.0600168811886238E-3</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>1.458095511957054E-3</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>1.34865526300586E-3</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>1.7316961343350409E-3</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>1.5128156364326521E-3</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2.0280191619885608E-3</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>1.6751983587927741E-3</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>1.511037985365982E-3</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>1.2374373629879961E-3</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>1.8940788566951629E-3</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2.003519105646358E-3</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>1.948798981170761E-3</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2.0582392301219548E-3</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>1.401597736414788E-3</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>1.6204782343171771E-3</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>1.3468776119391901E-3</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>1.2921574874635931E-3</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>1.7846386077439681E-3</c:v>
-              </c:pt>
-              <c:pt idx="32">
-                <c:v>1.7299184832683711E-3</c:v>
-              </c:pt>
-              <c:pt idx="33">
-                <c:v>1.1827172385123991E-3</c:v>
-              </c:pt>
-              <c:pt idx="34">
-                <c:v>1.127997114036801E-3</c:v>
-              </c:pt>
-              <c:pt idx="35">
-                <c:v>1.5657581098415801E-3</c:v>
-              </c:pt>
-              <c:pt idx="36">
-                <c:v>1.839358732219567E-3</c:v>
-              </c:pt>
-              <c:pt idx="37">
-                <c:v>1.456317860890385E-3</c:v>
-              </c:pt>
-              <c:pt idx="38">
-                <c:v>2.0564615790552849E-3</c:v>
-              </c:pt>
-              <c:pt idx="39">
-                <c:v>1.837581081152895E-3</c:v>
-              </c:pt>
-              <c:pt idx="40">
-                <c:v>1.7281408322017021E-3</c:v>
-              </c:pt>
-              <c:pt idx="41">
-                <c:v>1.8923012056284931E-3</c:v>
-              </c:pt>
-              <c:pt idx="42">
-                <c:v>1.618700583250507E-3</c:v>
-              </c:pt>
-              <c:pt idx="43">
-                <c:v>1.34509996087252E-3</c:v>
-              </c:pt>
-              <c:pt idx="44">
-                <c:v>1.673420707726104E-3</c:v>
-              </c:pt>
-              <c:pt idx="45">
-                <c:v>1.4545402098237151E-3</c:v>
-              </c:pt>
-              <c:pt idx="46">
-                <c:v>1.399820085348117E-3</c:v>
-              </c:pt>
-              <c:pt idx="47">
-                <c:v>1.5639804587749091E-3</c:v>
-              </c:pt>
-              <c:pt idx="48">
-                <c:v>1.1809395874457279E-3</c:v>
-              </c:pt>
-              <c:pt idx="49">
-                <c:v>1.235659711921326E-3</c:v>
-              </c:pt>
-              <c:pt idx="50">
-                <c:v>2.0017414545796882E-3</c:v>
-              </c:pt>
-              <c:pt idx="51">
-                <c:v>1.509260334299313E-3</c:v>
-              </c:pt>
-              <c:pt idx="52">
-                <c:v>1.9470213301040901E-3</c:v>
-              </c:pt>
-              <c:pt idx="53">
-                <c:v>1.290379836396923E-3</c:v>
-              </c:pt>
-              <c:pt idx="54">
-                <c:v>1.782860956677298E-3</c:v>
-              </c:pt>
-              <c:pt idx="55">
-                <c:v>1.452762558757045E-3</c:v>
-              </c:pt>
-              <c:pt idx="56">
-                <c:v>2.0546839279886151E-3</c:v>
-              </c:pt>
-              <c:pt idx="57">
-                <c:v>1.835803430086226E-3</c:v>
-              </c:pt>
-              <c:pt idx="58">
-                <c:v>1.562202807708239E-3</c:v>
-              </c:pt>
-              <c:pt idx="59">
-                <c:v>1.6716430566594341E-3</c:v>
-              </c:pt>
-              <c:pt idx="60">
-                <c:v>1.3433223098058499E-3</c:v>
-              </c:pt>
-              <c:pt idx="61">
-                <c:v>1.94524367903742E-3</c:v>
-              </c:pt>
-              <c:pt idx="62">
-                <c:v>1.7810833056106281E-3</c:v>
-              </c:pt>
-              <c:pt idx="63">
-                <c:v>1.72636318113503E-3</c:v>
-              </c:pt>
-              <c:pt idx="64">
-                <c:v>1.398042434281446E-3</c:v>
-              </c:pt>
-              <c:pt idx="65">
-                <c:v>1.999963803513017E-3</c:v>
-              </c:pt>
-              <c:pt idx="66">
-                <c:v>1.890523554561823E-3</c:v>
-              </c:pt>
-              <c:pt idx="67">
-                <c:v>1.616922932183836E-3</c:v>
-              </c:pt>
-              <c:pt idx="68">
-                <c:v>1.233882060854655E-3</c:v>
-              </c:pt>
-              <c:pt idx="69">
-                <c:v>1.507482683232642E-3</c:v>
-              </c:pt>
-              <c:pt idx="70">
-                <c:v>1.288602185330252E-3</c:v>
-              </c:pt>
-              <c:pt idx="71">
-                <c:v>2.0529062769219439E-3</c:v>
-              </c:pt>
-              <c:pt idx="72">
-                <c:v>1.7245855300683599E-3</c:v>
-              </c:pt>
-              <c:pt idx="73">
-                <c:v>1.7793056545439591E-3</c:v>
-              </c:pt>
-              <c:pt idx="74">
-                <c:v>1.396264783214777E-3</c:v>
-              </c:pt>
-              <c:pt idx="75">
-                <c:v>1.4509849076903749E-3</c:v>
-              </c:pt>
-              <c:pt idx="76">
-                <c:v>1.5057050321659719E-3</c:v>
-              </c:pt>
-              <c:pt idx="77">
-                <c:v>1.5604251566415689E-3</c:v>
-              </c:pt>
-              <c:pt idx="78">
-                <c:v>1.9434660279707501E-3</c:v>
-              </c:pt>
-              <c:pt idx="79">
-                <c:v>1.34154465873918E-3</c:v>
-              </c:pt>
-              <c:pt idx="80">
-                <c:v>1.8887459034951531E-3</c:v>
-              </c:pt>
-              <c:pt idx="81">
-                <c:v>1.615145281117165E-3</c:v>
-              </c:pt>
-              <c:pt idx="82">
-                <c:v>1.286824534263583E-3</c:v>
-              </c:pt>
-              <c:pt idx="83">
-                <c:v>1.6698654055927629E-3</c:v>
-              </c:pt>
-              <c:pt idx="84">
-                <c:v>1.8340257790195539E-3</c:v>
-              </c:pt>
-              <c:pt idx="85">
-                <c:v>1.9981861524463471E-3</c:v>
-              </c:pt>
-              <c:pt idx="86">
-                <c:v>1.4492072566237039E-3</c:v>
-              </c:pt>
-              <c:pt idx="87">
-                <c:v>1.5586475055748979E-3</c:v>
-              </c:pt>
-              <c:pt idx="88">
-                <c:v>1.668087754526093E-3</c:v>
-              </c:pt>
-              <c:pt idx="89">
-                <c:v>1.72280787900169E-3</c:v>
-              </c:pt>
-              <c:pt idx="90">
-                <c:v>1.503927381099302E-3</c:v>
-              </c:pt>
-              <c:pt idx="91">
-                <c:v>1.613367630050496E-3</c:v>
-              </c:pt>
-              <c:pt idx="92">
-                <c:v>1.7775280034772879E-3</c:v>
-              </c:pt>
-              <c:pt idx="93">
-                <c:v>1.3397670076725099E-3</c:v>
-              </c:pt>
-              <c:pt idx="94">
-                <c:v>1.8322481279528849E-3</c:v>
-              </c:pt>
-              <c:pt idx="95">
-                <c:v>1.9964085013796768E-3</c:v>
-              </c:pt>
-              <c:pt idx="96">
-                <c:v>1.886968252428481E-3</c:v>
-              </c:pt>
-              <c:pt idx="97">
-                <c:v>1.9416883769040789E-3</c:v>
-              </c:pt>
-              <c:pt idx="98">
-                <c:v>1.3944871321481069E-3</c:v>
-              </c:pt>
-              <c:pt idx="99">
-                <c:v>2.051128625855274E-3</c:v>
-              </c:pt>
-              <c:pt idx="100">
-                <c:v>2.0493509747886028E-3</c:v>
-              </c:pt>
-              <c:pt idx="101">
-                <c:v>1.830470476886215E-3</c:v>
-              </c:pt>
-              <c:pt idx="102">
-                <c:v>1.6663101034594229E-3</c:v>
-              </c:pt>
-              <c:pt idx="103">
-                <c:v>1.6115899789838259E-3</c:v>
-              </c:pt>
-              <c:pt idx="104">
-                <c:v>1.994630850313006E-3</c:v>
-              </c:pt>
-              <c:pt idx="105">
-                <c:v>1.3927094810814371E-3</c:v>
-              </c:pt>
-              <c:pt idx="106">
-                <c:v>1.7757503524106169E-3</c:v>
-              </c:pt>
-              <c:pt idx="107">
-                <c:v>1.5021497300326311E-3</c:v>
-              </c:pt>
-              <c:pt idx="108">
-                <c:v>1.5568698545082289E-3</c:v>
-              </c:pt>
-              <c:pt idx="109">
-                <c:v>1.7210302279350199E-3</c:v>
-              </c:pt>
-              <c:pt idx="110">
-                <c:v>1.9399107258374099E-3</c:v>
-              </c:pt>
-              <c:pt idx="111">
-                <c:v>1.885190601361812E-3</c:v>
-              </c:pt>
-              <c:pt idx="112">
-                <c:v>1.4474296055570341E-3</c:v>
-              </c:pt>
-              <c:pt idx="113">
-                <c:v>1.8834129502951419E-3</c:v>
-              </c:pt>
-              <c:pt idx="114">
-                <c:v>1.555092203441558E-3</c:v>
-              </c:pt>
-              <c:pt idx="115">
-                <c:v>1.6098123279171561E-3</c:v>
-              </c:pt>
-              <c:pt idx="116">
-                <c:v>2.0475733237219338E-3</c:v>
-              </c:pt>
-              <c:pt idx="117">
-                <c:v>1.9381330747707389E-3</c:v>
-              </c:pt>
-              <c:pt idx="118">
-                <c:v>1.445651954490364E-3</c:v>
-              </c:pt>
-              <c:pt idx="119">
-                <c:v>1.500372078965961E-3</c:v>
-              </c:pt>
-              <c:pt idx="120">
-                <c:v>1.8286928258195441E-3</c:v>
-              </c:pt>
-              <c:pt idx="121">
-                <c:v>1.6645324523927531E-3</c:v>
-              </c:pt>
-              <c:pt idx="122">
-                <c:v>1.7192525768683501E-3</c:v>
-              </c:pt>
-              <c:pt idx="123">
-                <c:v>1.9928531992463362E-3</c:v>
-              </c:pt>
-              <c:pt idx="124">
-                <c:v>1.7739727013439471E-3</c:v>
-              </c:pt>
-              <c:pt idx="125">
-                <c:v>1.022112167218948E-3</c:v>
-              </c:pt>
-              <c:pt idx="126">
-                <c:v>1.56931341197492E-3</c:v>
-              </c:pt>
-              <c:pt idx="127">
-                <c:v>1.076832291694545E-3</c:v>
-              </c:pt>
-              <c:pt idx="128">
-                <c:v>1.131552416170141E-3</c:v>
-              </c:pt>
-              <c:pt idx="129">
-                <c:v>1.1862725406457399E-3</c:v>
-              </c:pt>
-              <c:pt idx="130">
-                <c:v>1.2409926651213361E-3</c:v>
-              </c:pt>
-              <c:pt idx="131">
-                <c:v>1.7881939098773089E-3</c:v>
-              </c:pt>
-              <c:pt idx="132">
-                <c:v>1.4051530385481271E-3</c:v>
-              </c:pt>
-              <c:pt idx="133">
-                <c:v>1.3504329140725309E-3</c:v>
-              </c:pt>
-              <c:pt idx="134">
-                <c:v>1.2957127895969339E-3</c:v>
-              </c:pt>
-              <c:pt idx="135">
-                <c:v>1.624033536450517E-3</c:v>
-              </c:pt>
-              <c:pt idx="136">
-                <c:v>2.061794532255295E-3</c:v>
-              </c:pt>
-              <c:pt idx="137">
-                <c:v>1.4598731630237249E-3</c:v>
-              </c:pt>
-              <c:pt idx="138">
-                <c:v>1.7334737854017119E-3</c:v>
-              </c:pt>
-              <c:pt idx="139">
-                <c:v>1.842914034352907E-3</c:v>
-              </c:pt>
-              <c:pt idx="140">
-                <c:v>1.897634158828504E-3</c:v>
-              </c:pt>
-              <c:pt idx="141">
-                <c:v>1.5145932874993219E-3</c:v>
-              </c:pt>
-              <c:pt idx="142">
-                <c:v>2.0070744077796969E-3</c:v>
-              </c:pt>
-              <c:pt idx="143">
-                <c:v>1.6787536609261129E-3</c:v>
-              </c:pt>
-              <c:pt idx="144">
-                <c:v>1.952354283304101E-3</c:v>
-              </c:pt>
-              <c:pt idx="145">
-                <c:v>2.0457956726552639E-3</c:v>
-              </c:pt>
-              <c:pt idx="146">
-                <c:v>1.71747492580168E-3</c:v>
-              </c:pt>
-              <c:pt idx="147">
-                <c:v>1.9910755481796659E-3</c:v>
-              </c:pt>
-              <c:pt idx="148">
-                <c:v>1.826915174752874E-3</c:v>
-              </c:pt>
-              <c:pt idx="149">
-                <c:v>1.4985944278992911E-3</c:v>
-              </c:pt>
-              <c:pt idx="150">
-                <c:v>1.662754801326083E-3</c:v>
-              </c:pt>
-              <c:pt idx="151">
-                <c:v>1.772195050277277E-3</c:v>
-              </c:pt>
-              <c:pt idx="152">
-                <c:v>1.8816352992284721E-3</c:v>
-              </c:pt>
-              <c:pt idx="153">
-                <c:v>1.9363554237040691E-3</c:v>
-              </c:pt>
-              <c:pt idx="154">
-                <c:v>1.553314552374889E-3</c:v>
-              </c:pt>
-              <c:pt idx="155">
-                <c:v>1.6080346768504851E-3</c:v>
-              </c:pt>
-              <c:pt idx="156">
-                <c:v>1.606257025783815E-3</c:v>
-              </c:pt>
-              <c:pt idx="157">
-                <c:v>1.879857648161802E-3</c:v>
-              </c:pt>
-              <c:pt idx="158">
-                <c:v>1.934577772637399E-3</c:v>
-              </c:pt>
-              <c:pt idx="159">
-                <c:v>1.5515369013082191E-3</c:v>
-              </c:pt>
-              <c:pt idx="160">
-                <c:v>1.660977150259412E-3</c:v>
-              </c:pt>
-              <c:pt idx="161">
-                <c:v>1.8251375236862041E-3</c:v>
-              </c:pt>
-              <c:pt idx="162">
-                <c:v>2.0440180215885941E-3</c:v>
-              </c:pt>
-              <c:pt idx="163">
-                <c:v>1.989297897112996E-3</c:v>
-              </c:pt>
-              <c:pt idx="164">
-                <c:v>1.715697274735011E-3</c:v>
-              </c:pt>
-              <c:pt idx="165">
-                <c:v>1.7704173992106071E-3</c:v>
-              </c:pt>
-              <c:pt idx="166">
-                <c:v>1.878079997095131E-3</c:v>
-              </c:pt>
-              <c:pt idx="167">
-                <c:v>1.768639748143937E-3</c:v>
-              </c:pt>
-              <c:pt idx="168">
-                <c:v>1.9328001215707291E-3</c:v>
-              </c:pt>
-              <c:pt idx="169">
-                <c:v>1.823359872619534E-3</c:v>
-              </c:pt>
-              <c:pt idx="170">
-                <c:v>2.0422403705219229E-3</c:v>
-              </c:pt>
-              <c:pt idx="171">
-                <c:v>1.7139196236683389E-3</c:v>
-              </c:pt>
-              <c:pt idx="172">
-                <c:v>1.9875202460463248E-3</c:v>
-              </c:pt>
-              <c:pt idx="173">
-                <c:v>1.6044793747171449E-3</c:v>
-              </c:pt>
-              <c:pt idx="174">
-                <c:v>1.6591994991927419E-3</c:v>
-              </c:pt>
-              <c:pt idx="175">
-                <c:v>2.040462719455253E-3</c:v>
-              </c:pt>
-              <c:pt idx="176">
-                <c:v>1.8763023460284609E-3</c:v>
-              </c:pt>
-              <c:pt idx="177">
-                <c:v>1.9310224705040579E-3</c:v>
-              </c:pt>
-              <c:pt idx="178">
-                <c:v>1.8215822215528639E-3</c:v>
-              </c:pt>
-              <c:pt idx="179">
-                <c:v>1.712141972601669E-3</c:v>
-              </c:pt>
-              <c:pt idx="180">
-                <c:v>1.9857425949796558E-3</c:v>
-              </c:pt>
-              <c:pt idx="181">
-                <c:v>1.7668620970772661E-3</c:v>
-              </c:pt>
-              <c:pt idx="182">
-                <c:v>1.657421848126072E-3</c:v>
-              </c:pt>
-              <c:pt idx="183">
-                <c:v>1.710364321534999E-3</c:v>
-              </c:pt>
-              <c:pt idx="184">
-                <c:v>1.9839649439129851E-3</c:v>
-              </c:pt>
-              <c:pt idx="185">
-                <c:v>2.0386850683885831E-3</c:v>
-              </c:pt>
-              <c:pt idx="186">
-                <c:v>1.9292448194373881E-3</c:v>
-              </c:pt>
-              <c:pt idx="187">
-                <c:v>1.765084446010596E-3</c:v>
-              </c:pt>
-              <c:pt idx="188">
-                <c:v>1.874524694961791E-3</c:v>
-              </c:pt>
-              <c:pt idx="189">
-                <c:v>1.819804570486193E-3</c:v>
-              </c:pt>
-              <c:pt idx="190">
-                <c:v>2.036907417321912E-3</c:v>
-              </c:pt>
-              <c:pt idx="191">
-                <c:v>1.9274671683707171E-3</c:v>
-              </c:pt>
-              <c:pt idx="192">
-                <c:v>1.7633067949439261E-3</c:v>
-              </c:pt>
-              <c:pt idx="193">
-                <c:v>1.872747043895121E-3</c:v>
-              </c:pt>
-              <c:pt idx="194">
-                <c:v>1.8180269194195231E-3</c:v>
-              </c:pt>
-              <c:pt idx="195">
-                <c:v>1.9821872928463152E-3</c:v>
-              </c:pt>
-              <c:pt idx="196">
-                <c:v>1.87096939282845E-3</c:v>
-              </c:pt>
-              <c:pt idx="197">
-                <c:v>1.8162492683528541E-3</c:v>
-              </c:pt>
-              <c:pt idx="198">
-                <c:v>1.9804096417796462E-3</c:v>
-              </c:pt>
-              <c:pt idx="199">
-                <c:v>2.035129766255243E-3</c:v>
-              </c:pt>
-              <c:pt idx="200">
-                <c:v>1.9256895173040481E-3</c:v>
-              </c:pt>
-              <c:pt idx="201">
-                <c:v>2.0333521151885722E-3</c:v>
-              </c:pt>
-              <c:pt idx="202">
-                <c:v>1.9786319907129741E-3</c:v>
-              </c:pt>
-              <c:pt idx="203">
-                <c:v>1.923911866237378E-3</c:v>
-              </c:pt>
-              <c:pt idx="204">
-                <c:v>1.8691917417617799E-3</c:v>
-              </c:pt>
-              <c:pt idx="205">
-                <c:v>1.9221342151707079E-3</c:v>
-              </c:pt>
-              <c:pt idx="206">
-                <c:v>1.9768543396463051E-3</c:v>
-              </c:pt>
-              <c:pt idx="207">
-                <c:v>2.031574464121901E-3</c:v>
-              </c:pt>
-              <c:pt idx="208">
-                <c:v>2.029796813055232E-3</c:v>
-              </c:pt>
-              <c:pt idx="209">
-                <c:v>1.9750766885796339E-3</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng'!$B$23:$B$232</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>-8.2077039490100259E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0586998264609171E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6736002387158349E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.18971064225395E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.2885006509707421E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9034010632256548E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.128220601028458E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.1332018877354752E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.066730559802968E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.7481022999903927E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.005240518577476E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.3630027122453016E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4375047735198556E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4437994142060091E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.288990019510952E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5928035367551193E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.8226043612649446E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.5183014754805658E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.9779031245002104E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3535147920479591E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.8452900102910782E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.6899912470558178E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.7644933083303718E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.385688361271439E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.155887536761618E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7707879490165229E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.4098712450670639E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.9197920715656366E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.4601904225459969E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.534692483820552E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.1495928960754608E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.61548918578126E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.2303895980361699E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.037939372058529E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0994294132840191E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.0750908348009025E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.0005887735263512E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.3048916593107267E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.530752470623145E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.7126768960819569E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.9424777205917822E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0977764838270429E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.1722785451016032E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.2467806063761637E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.5573781328466878E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.0169797818663362E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.6318801941212451E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.7871789573565142E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.009148184314089E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.4765814308859803E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.6797565931722305E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.4020793696114252E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.4828760715721349E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.8616810186310704E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.3275773083368701E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.729067904421948E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4836630382078739E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.4247650186375619E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5.4992670799121194E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.2694662554022979E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.9588687289317646E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.1949641941277411E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.0396654308924759E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.6545658431473891E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-7.3439683166768568E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5.8006378187283241E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.8098646063826549E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.8843666676572116E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.1886695534415877E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-6.1141674921670315E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.5737691411866778E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.2274850782647257E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.3666539657029959E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.7517535534480892E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-7.056056439232462E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-6.4411560269775554E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.82625561472264E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.2113552024677279E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-9.0705231668335157E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.6709568514873774E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.521952728938262E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-4.5964547902128212E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-8.2858572637422841E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.9815543779579048E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.1368531411931709E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.921519044284436E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-6.1532441495331606E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.9234433250233407E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.693642500513517E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.0787420882586028E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5.5383437372782506E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-4.3085429127684308E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.4638416760036918E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-7.3830449740429859E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.848941263748787E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.2400269840503642E-7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.2340408514938719E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-6.1914043923895585E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.7681445617880738E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1066038527086389E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.9857226271525717E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.561029386304387E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.4057306230691179E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.0206310353240349E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.8367185046034791E-5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-6.4802326843436779E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.1759297985593021E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-5.250431859833858E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.6355314475789432E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.7908302108142118E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-3.3122856179456202E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-9.4612897404948009E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-5.8653322720887701E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-6.5821709660508491E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-4.3476195701345501E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-3.7327191578796418E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1864841401596471E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-4.3316684350175077E-6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-5.5774203946443775E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-4.9625199823894665E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.2731175088599969E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-3.117818745624727E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.5029183333698208E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.7158372790473787E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.8880179211149101E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.27999187122388E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-6.6509145896896887E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.2185018299983889E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.157011788772898E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.0955217475474069E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.034031706321916E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4.1913129406700458E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-8.495615826454424E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-9.1105162387093339E-4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-9.7254166509642438E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.0360141774347766E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.116810879395489E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-7.8807154141995119E-4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-4.8062133529249579E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3.5764125284151347E-4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.9615121161602232E-4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-7.265815001944603E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.7317112916504E-4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-5.4211137651798667E-4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.34661170390531E-4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.474396017604039E-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.2150064559254331E-4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.5949560534912933E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-9.8520563141560414E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-4.6746081049450728E-4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.8299068681803381E-4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.600106043670518E-4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-3.7030521916069488E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.445951930942181E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-4.0597076926901602E-4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-3.444807280435254E-4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-3.1568954029908598E-4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-8.2393341716309205E-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.3250707053861071E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-3.7717958152457692E-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.5419949907359483E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-6.9729375397121275E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.7623078950484319E-4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.1474074827935189E-4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.9270945784810359E-4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.312194166226127E-4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.0551853572808399E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.0242822887817331E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.2041894798300081E-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-4.0938187652682273E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.0502197724928239E-4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.6391827010366471E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.4353193602379091E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.8689835255464721E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.2540831132915521E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.3381316499372119E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.9343041317247907E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.108330825427396E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.2146999908242639E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.351270823592252E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.7232312376823039E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-7.3637041133734195E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.9661712358471609E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.0633589461478629E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0111431151266959E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.6260435273816051E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.3962427028717871E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-4.4845853389294928E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.8134229061687039E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.6644187836196621E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.9139554048259988E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.6841545803161819E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.6054665644855739E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.069254168061261E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.5435375580635502E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.2990549925710839E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.3571660455056529E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.4226563325074634E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.5869668700154793E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.2018672822703941E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.972066457760571E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.489779159714784E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.8748787474598692E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.2599783352049611E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.6450779229500471E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.5478902126493518E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.1627906249042639E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.7776910371591728E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.0656029146035638E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.4507025023486527E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1638,7 +1651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15C851BF-DB9C-5943-BE5C-0A8ADF3E7C5E}" type="CELLRANGE">
+                    <a:fld id="{9E995B3D-D786-EB46-B8D1-EB7E4ADBE4B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1654,6 +1667,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
@@ -1677,7 +1691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AE44A72-75F1-8341-956A-42E5C566D476}" type="CELLRANGE">
+                    <a:fld id="{49AC22F6-9527-4E4B-B463-F2A56CCB3FEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1693,6 +1707,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
@@ -1716,7 +1731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{802C0F9C-37B8-8843-B50D-F03EAAD68974}" type="CELLRANGE">
+                    <a:fld id="{5CEE7572-956C-EC4E-9CA0-80763D05839C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1732,6 +1747,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
@@ -1755,7 +1771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3F68467-F2A6-0947-8C82-83CE8AE818D2}" type="CELLRANGE">
+                    <a:fld id="{87F4B041-A6F8-2246-AED0-9E5C0C389D18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1771,6 +1787,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
@@ -1819,6 +1836,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1842,48 +1860,52 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>2.858696589235897E-2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2.8947057799684851E-2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3.1789196050220951E-2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2.4384589215372759E-2</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng_extremes'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3792518631448588E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6134262704790408E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9493816030783111E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.557685611329244E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>2.0280191619885608E-3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2.0635721833219649E-3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>9.6916969381002026E-4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>1.9363554237040691E-3</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[2]Hang Seng_extremes'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3535147920479591E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.40472275683988E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.37027310019381E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.385688361271439E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>{"Hang Seng : 100%"."S&amp;P 500 : 100%"."CAC40 : 100%"."CAC40 : 10%
-S&amp;P 500 : 40%
-Hang Seng : 50%"}</c15:f>
+                <c15:f>'[2]Hang Seng_extremes'!$C$2:$C$5</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -1896,9 +1918,9 @@
                     <c:v>CAC40 : 100%</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>CAC40 : 10%
-S&amp;P 500 : 40%
-Hang Seng : 50%</c:v>
+                    <c:v>CAC40 : 15%
+S&amp;P 500 : 70%
+Hang Seng : 15%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2030,13 +2052,15 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2068901663"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-2E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2068901663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5000000000000001E-3"/>
+          <c:min val="-2E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2272,9 +2296,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Taiwan!$A$2:$A$22</c:f>
+              <c:f>[2]Taiwan!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.9493816030783111E-2</c:v>
@@ -2344,9 +2368,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Taiwan!$B$2:$B$22</c:f>
+              <c:f>[2]Taiwan!$B$2:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-1.37027310019381E-3</c:v>
@@ -3776,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FFFF8B6-3A7F-5F4A-A3B8-CF758DA88416}" type="CELLRANGE">
+                    <a:fld id="{F842ABAC-5F80-634A-B4B8-5651EC6A523A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3815,7 +3839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F538E17F-995D-E545-8586-C6018E154985}" type="CELLRANGE">
+                    <a:fld id="{701B2FA0-E2EB-4740-912C-8ADA52A85E33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3854,7 +3878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{677DEE77-7992-B848-9261-39223076CC0B}" type="CELLRANGE">
+                    <a:fld id="{03F50A26-4AC6-2E49-8613-2138C6CA7DDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3893,7 +3917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B14E516-CA60-F047-9F37-E42C682877E8}" type="CELLRANGE">
+                    <a:fld id="{658814FB-6280-C64E-AEDD-68FB6737AA29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4172,7 +4196,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2068901663"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-2E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -7478,6 +7502,3168 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hang Seng"/>
+      <sheetName val="Hang Seng_extremes"/>
+      <sheetName val="Sao Paolo"/>
+      <sheetName val="Sao Paolo_extremes"/>
+      <sheetName val="Taiwan"/>
+      <sheetName val="Taiwan_extremes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.5946509483569351E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-2.6345235813497048E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.589796185441803E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-3.2494239936046131E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.587989558544369E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-3.8643244058595197E-4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2.589237448135424E-2</v>
+          </cell>
+          <cell r="B6">
+            <v>-4.4792248181144362E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2.907777022501672E-2</v>
+          </cell>
+          <cell r="B7">
+            <v>-1.3087830589683189E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2.5935354451415159E-2</v>
+          </cell>
+          <cell r="B8">
+            <v>-5.0941252303693526E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2.6008684284812171E-2</v>
+          </cell>
+          <cell r="B9">
+            <v>-5.7090256426242604E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2.611210829102412E-2</v>
+          </cell>
+          <cell r="B10">
+            <v>-6.3239260548791682E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.6245270698660079E-2</v>
+          </cell>
+          <cell r="B11">
+            <v>-6.9388264671340792E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B12">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.6407721638913861E-2</v>
+          </cell>
+          <cell r="B13">
+            <v>-7.5537268793889913E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2.6598924484636841E-2</v>
+          </cell>
+          <cell r="B14">
+            <v>-8.1686272916439056E-4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2.602536789399252E-2</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.019623169094794E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2.8683266061045039E-2</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.2472930177428281E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2.7065056942623261E-2</v>
+          </cell>
+          <cell r="B17">
+            <v>-9.3984281161537287E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2.7338559020080269E-2</v>
+          </cell>
+          <cell r="B18">
+            <v>-1.0013328528408641E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2.831120407307269E-2</v>
+          </cell>
+          <cell r="B19">
+            <v>-1.185802976517337E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2.7637977580677361E-2</v>
+          </cell>
+          <cell r="B20">
+            <v>-1.062822894066355E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2.6818264276218671E-2</v>
+          </cell>
+          <cell r="B21">
+            <v>-8.7835277038988187E-4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2.796248010592544E-2</v>
+          </cell>
+          <cell r="B22">
+            <v>-1.1243129352918461E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2.674659259894838E-2</v>
+          </cell>
+          <cell r="B23">
+            <v>-8.2077039490100259E-4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2.5640799135072469E-2</v>
+          </cell>
+          <cell r="B24">
+            <v>-2.0586998264609171E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2.5614972637368821E-2</v>
+          </cell>
+          <cell r="B25">
+            <v>-2.6736002387158349E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2.8741080066173801E-2</v>
+          </cell>
+          <cell r="B26">
+            <v>-1.18971064225395E-3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2.562000311494543E-2</v>
+          </cell>
+          <cell r="B27">
+            <v>-3.2885006509707421E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2.5655872416955799E-2</v>
+          </cell>
+          <cell r="B28">
+            <v>-3.9034010632256548E-4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2.8348739626526578E-2</v>
+          </cell>
+          <cell r="B29">
+            <v>-1.128220601028458E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2.581950289241897E-2</v>
+          </cell>
+          <cell r="B30">
+            <v>-5.1332018877354752E-4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2.7979168803301209E-2</v>
+          </cell>
+          <cell r="B31">
+            <v>-1.066730559802968E-3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2.594668456436872E-2</v>
+          </cell>
+          <cell r="B32">
+            <v>-5.7481022999903927E-4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2.7633281182358499E-2</v>
+          </cell>
+          <cell r="B33">
+            <v>-1.005240518577476E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2.6103556148975339E-2</v>
+          </cell>
+          <cell r="B34">
+            <v>-6.3630027122453016E-4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2.7311976573503292E-2</v>
+          </cell>
+          <cell r="B35">
+            <v>-9.4375047735198556E-4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2.5697389572206589E-2</v>
+          </cell>
+          <cell r="B36">
+            <v>-1.4437994142060091E-4</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2.5784541392761099E-2</v>
+          </cell>
+          <cell r="B37">
+            <v>-8.288990019510952E-5</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2.650416064523348E-2</v>
+          </cell>
+          <cell r="B38">
+            <v>-7.5928035367551193E-4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>2.7016132093039089E-2</v>
+          </cell>
+          <cell r="B39">
+            <v>-8.8226043612649446E-4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>2.572245153186322E-2</v>
+          </cell>
+          <cell r="B40">
+            <v>-4.5183014754805658E-4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>2.6289586166982661E-2</v>
+          </cell>
+          <cell r="B41">
+            <v>-6.9779031245002104E-4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>3.3792518631448588E-2</v>
+          </cell>
+          <cell r="B42">
+            <v>4.3535147920479591E-4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>2.5827927002194939E-2</v>
+          </cell>
+          <cell r="B43">
+            <v>-4.8452900102910782E-4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>2.633186620986841E-2</v>
+          </cell>
+          <cell r="B44">
+            <v>-6.6899912470558178E-4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>2.772735091758138E-2</v>
+          </cell>
+          <cell r="B45">
+            <v>-9.7644933083303718E-4</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>2.557685611329244E-2</v>
+          </cell>
+          <cell r="B46">
+            <v>-2.385688361271439E-4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>2.5636134793618561E-2</v>
+          </cell>
+          <cell r="B47">
+            <v>-1.155887536761618E-4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>2.5591067605006301E-2</v>
+          </cell>
+          <cell r="B48">
+            <v>-1.7707879490165229E-4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>2.5711895430282791E-2</v>
+          </cell>
+          <cell r="B49">
+            <v>-5.4098712450670639E-5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>2.6810412567012231E-2</v>
+          </cell>
+          <cell r="B50">
+            <v>-7.9197920715656366E-4</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>2.5966557493244471E-2</v>
+          </cell>
+          <cell r="B51">
+            <v>-5.4601904225459969E-4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>2.7090330086137111E-2</v>
+          </cell>
+          <cell r="B52">
+            <v>-8.534692483820552E-4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>2.739626324532168E-2</v>
+          </cell>
+          <cell r="B53">
+            <v>-9.1495928960754608E-4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>2.5641094048384688E-2</v>
+          </cell>
+          <cell r="B54">
+            <v>-3.61548918578126E-4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>2.571931204134531E-2</v>
+          </cell>
+          <cell r="B55">
+            <v>-4.2303895980361699E-4</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>2.8082703421769741E-2</v>
+          </cell>
+          <cell r="B56">
+            <v>-1.037939372058529E-3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>2.846141190299762E-2</v>
+          </cell>
+          <cell r="B57">
+            <v>-1.0994294132840191E-3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>2.6134725870723619E-2</v>
+          </cell>
+          <cell r="B58">
+            <v>-6.0750908348009025E-4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>2.5593551718836659E-2</v>
+          </cell>
+          <cell r="B59">
+            <v>-3.0005887735263512E-4</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>2.655733332470693E-2</v>
+          </cell>
+          <cell r="B60">
+            <v>-7.3048916593107267E-4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>2.5708343464430069E-2</v>
+          </cell>
+          <cell r="B61">
+            <v>-2.530752470623145E-5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>2.5636567337384331E-2</v>
+          </cell>
+          <cell r="B62">
+            <v>-2.7126768960819569E-4</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>2.578526471137434E-2</v>
+          </cell>
+          <cell r="B63">
+            <v>-3.9424777205917822E-4</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>2.560825412540842E-2</v>
+          </cell>
+          <cell r="B64">
+            <v>-2.0977764838270429E-4</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>2.6054791142928239E-2</v>
+          </cell>
+          <cell r="B65">
+            <v>-5.1722785451016032E-4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>2.7229743670620841E-2</v>
+          </cell>
+          <cell r="B66">
+            <v>-8.2467806063761637E-4</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>2.5905120384478231E-2</v>
+          </cell>
+          <cell r="B67">
+            <v>-4.5573781328466878E-4</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>2.66771763951014E-2</v>
+          </cell>
+          <cell r="B68">
+            <v>-7.0169797818663362E-4</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>2.694020403889353E-2</v>
+          </cell>
+          <cell r="B69">
+            <v>-7.6318801941212451E-4</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2.6233766682227572E-2</v>
+          </cell>
+          <cell r="B70">
+            <v>-5.7871789573565142E-4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2.8248910444671191E-2</v>
+          </cell>
+          <cell r="B71">
+            <v>-1.009148184314089E-3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2.7884980082378288E-2</v>
+          </cell>
+          <cell r="B72">
+            <v>-9.4765814308859803E-4</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2.5644206924214461E-2</v>
+          </cell>
+          <cell r="B73">
+            <v>-8.6797565931722305E-5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>2.6441451938994089E-2</v>
+          </cell>
+          <cell r="B74">
+            <v>-6.4020793696114252E-4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>2.561080372279232E-2</v>
+          </cell>
+          <cell r="B75">
+            <v>-1.4828760715721349E-4</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>2.75449592583989E-2</v>
+          </cell>
+          <cell r="B76">
+            <v>-8.8616810186310704E-4</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2.5695641338671131E-2</v>
+          </cell>
+          <cell r="B77">
+            <v>-3.3275773083368701E-4</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2.6862797560858059E-2</v>
+          </cell>
+          <cell r="B78">
+            <v>-6.729067904421948E-4</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2.5773914061254479E-2</v>
+          </cell>
+          <cell r="B79">
+            <v>3.4836630382078739E-6</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2.5748701819475011E-2</v>
+          </cell>
+          <cell r="B80">
+            <v>-2.4247650186375619E-4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2.6399914727547061E-2</v>
+          </cell>
+          <cell r="B81">
+            <v>-5.4992670799121194E-4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2.6050471710171191E-2</v>
+          </cell>
+          <cell r="B82">
+            <v>-4.2694662554022979E-4</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>2.7433378607894542E-2</v>
+          </cell>
+          <cell r="B83">
+            <v>-7.9588687289317646E-4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>2.569984744653759E-2</v>
+          </cell>
+          <cell r="B84">
+            <v>-1.1949641941277411E-4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>2.5819074903986401E-2</v>
+          </cell>
+          <cell r="B85">
+            <v>-3.0396654308924759E-4</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>2.591978213403278E-2</v>
+          </cell>
+          <cell r="B86">
+            <v>-3.6545658431473891E-4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>2.7135020371938989E-2</v>
+          </cell>
+          <cell r="B87">
+            <v>-7.3439683166768568E-4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>2.5721540693974729E-2</v>
+          </cell>
+          <cell r="B88">
+            <v>-5.8006378187283241E-5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>2.570891198295739E-2</v>
+          </cell>
+          <cell r="B89">
+            <v>-1.8098646063826549E-4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>2.6210695149838609E-2</v>
+          </cell>
+          <cell r="B90">
+            <v>-4.8843666676572116E-4</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>2.8105099266273512E-2</v>
+          </cell>
+          <cell r="B91">
+            <v>-9.1886695534415877E-4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>2.6617512063947291E-2</v>
+          </cell>
+          <cell r="B92">
+            <v>-6.1141674921670315E-4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>2.7757029498331889E-2</v>
+          </cell>
+          <cell r="B93">
+            <v>-8.5737691411866778E-4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>2.5908082400542098E-2</v>
+          </cell>
+          <cell r="B94">
+            <v>3.2274850782647257E-5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>2.6121805083116359E-2</v>
+          </cell>
+          <cell r="B95">
+            <v>-3.3666539657029959E-4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>2.6010414054263291E-2</v>
+          </cell>
+          <cell r="B96">
+            <v>-2.7517535534480892E-4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>2.7393474273965188E-2</v>
+          </cell>
+          <cell r="B97">
+            <v>-7.056056439232462E-4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>2.711284585690792E-2</v>
+          </cell>
+          <cell r="B98">
+            <v>-6.4411560269775554E-4</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>2.6858739389463988E-2</v>
+          </cell>
+          <cell r="B99">
+            <v>-5.82625561472264E-4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2.6631914054203461E-2</v>
+          </cell>
+          <cell r="B100">
+            <v>-5.2113552024677279E-4</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>2.5857482775934242E-2</v>
+          </cell>
+          <cell r="B101">
+            <v>-9.0705231668335157E-5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>2.769981856628264E-2</v>
+          </cell>
+          <cell r="B102">
+            <v>-7.6709568514873774E-4</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>2.5878021497555088E-2</v>
+          </cell>
+          <cell r="B103">
+            <v>-1.521952728938262E-4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>2.6433072168373751E-2</v>
+          </cell>
+          <cell r="B104">
+            <v>-4.5964547902128212E-4</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>2.8031035619116879E-2</v>
+          </cell>
+          <cell r="B105">
+            <v>-8.2858572637422841E-4</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>2.6262849346464091E-2</v>
+          </cell>
+          <cell r="B106">
+            <v>-3.9815543779579048E-4</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>2.5929058432900151E-2</v>
+          </cell>
+          <cell r="B107">
+            <v>-2.1368531411931709E-4</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>2.5867514914583271E-2</v>
+          </cell>
+          <cell r="B108">
+            <v>-2.921519044284436E-5</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>2.7425559126657319E-2</v>
+          </cell>
+          <cell r="B109">
+            <v>-6.1532441495331606E-4</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>2.692806268641924E-2</v>
+          </cell>
+          <cell r="B110">
+            <v>-4.9234433250233407E-4</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>2.6540644313057471E-2</v>
+          </cell>
+          <cell r="B111">
+            <v>-3.693642500513517E-4</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>2.6389783269467039E-2</v>
+          </cell>
+          <cell r="B112">
+            <v>-3.0787420882586028E-4</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>2.7163397799105149E-2</v>
+          </cell>
+          <cell r="B113">
+            <v>-5.5383437372782506E-4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>2.6720262602819931E-2</v>
+          </cell>
+          <cell r="B114">
+            <v>-4.3085429127684308E-4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>2.6268174944888999E-2</v>
+          </cell>
+          <cell r="B115">
+            <v>-2.4638416760036918E-4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>2.8027272444003309E-2</v>
+          </cell>
+          <cell r="B116">
+            <v>-7.3830449740429859E-4</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>2.61762270453514E-2</v>
+          </cell>
+          <cell r="B117">
+            <v>-1.848941263748787E-4</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>2.6080977077653701E-2</v>
+          </cell>
+          <cell r="B118">
+            <v>-4.2400269840503642E-7</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>2.611425287449206E-2</v>
+          </cell>
+          <cell r="B119">
+            <v>-1.2340408514938719E-4</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>2.608246609361714E-2</v>
+          </cell>
+          <cell r="B120">
+            <v>-6.1914043923895585E-5</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>2.771378538373569E-2</v>
+          </cell>
+          <cell r="B121">
+            <v>-6.7681445617880738E-4</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>2.6109791010158388E-2</v>
+          </cell>
+          <cell r="B122">
+            <v>6.1066038527086389E-5</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>2.6377490494729341E-2</v>
+          </cell>
+          <cell r="B123">
+            <v>8.9857226271525717E-5</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>2.6488337409647698E-2</v>
+          </cell>
+          <cell r="B124">
+            <v>-1.561029386304387E-4</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>2.6881828631882751E-2</v>
+          </cell>
+          <cell r="B125">
+            <v>-3.4057306230691179E-4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>2.7070203696192979E-2</v>
+          </cell>
+          <cell r="B126">
+            <v>-4.0206310353240349E-4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>2.6360287708568901E-2</v>
+          </cell>
+          <cell r="B127">
+            <v>2.8367185046034791E-5</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>2.8093837991233089E-2</v>
+          </cell>
+          <cell r="B128">
+            <v>-6.4802326843436779E-4</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>2.6590426019168851E-2</v>
+          </cell>
+          <cell r="B129">
+            <v>-2.1759297985593021E-4</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>2.7529381461962359E-2</v>
+          </cell>
+          <cell r="B130">
+            <v>-5.250431859833858E-4</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>2.7286271991268589E-2</v>
+          </cell>
+          <cell r="B131">
+            <v>-4.6355314475789432E-4</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>2.672173247570377E-2</v>
+          </cell>
+          <cell r="B132">
+            <v>-2.7908302108142118E-4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>2.63730738600217E-2</v>
+          </cell>
+          <cell r="B133">
+            <v>-3.3122856179456202E-5</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>2.6415805402115439E-2</v>
+          </cell>
+          <cell r="B134">
+            <v>-9.4612897404948009E-5</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>2.779882266650199E-2</v>
+          </cell>
+          <cell r="B135">
+            <v>-5.8653322720887701E-4</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>2.6780472590610969E-2</v>
+          </cell>
+          <cell r="B136">
+            <v>-6.5821709660508491E-5</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>2.7704134774502051E-2</v>
+          </cell>
+          <cell r="B137">
+            <v>-4.3476195701345501E-4</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>2.7480498322039641E-2</v>
+          </cell>
+          <cell r="B138">
+            <v>-3.7327191578796418E-4</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>2.6709196698692501E-2</v>
+          </cell>
+          <cell r="B139">
+            <v>1.1864841401596471E-4</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>2.672716553269637E-2</v>
+          </cell>
+          <cell r="B140">
+            <v>-4.3316684350175077E-6</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>2.8230234769870289E-2</v>
+          </cell>
+          <cell r="B141">
+            <v>-5.5774203946443775E-4</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>2.795428183031293E-2</v>
+          </cell>
+          <cell r="B142">
+            <v>-4.9625199823894665E-4</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>2.6863126035690969E-2</v>
+          </cell>
+          <cell r="B143">
+            <v>-1.2731175088599969E-4</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>2.728402437178417E-2</v>
+          </cell>
+          <cell r="B144">
+            <v>-3.117818745624727E-4</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>2.711530337800486E-2</v>
+          </cell>
+          <cell r="B145">
+            <v>-2.5029183333698208E-4</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>2.6703380612133731E-2</v>
+          </cell>
+          <cell r="B146">
+            <v>5.7158372790473787E-5</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>2.6974856109180819E-2</v>
+          </cell>
+          <cell r="B147">
+            <v>-1.8880179211149101E-4</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>2.9085977530167478E-2</v>
+          </cell>
+          <cell r="B148">
+            <v>-1.27999187122388E-3</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>2.6140500304930401E-2</v>
+          </cell>
+          <cell r="B149">
+            <v>-6.6509145896896887E-4</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>2.8681187824202741E-2</v>
+          </cell>
+          <cell r="B150">
+            <v>-1.2185018299983889E-3</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>2.8298559585208969E-2</v>
+          </cell>
+          <cell r="B151">
+            <v>-1.157011788772898E-3</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>2.7939003340432339E-2</v>
+          </cell>
+          <cell r="B152">
+            <v>-1.0955217475474069E-3</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>2.760342069715991E-2</v>
+          </cell>
+          <cell r="B153">
+            <v>-1.034031706321916E-3</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>2.5739857036056722E-2</v>
+          </cell>
+          <cell r="B154">
+            <v>-4.1913129406700458E-4</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>2.6749216335798569E-2</v>
+          </cell>
+          <cell r="B155">
+            <v>-8.495615826454424E-4</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>2.7007687195421379E-2</v>
+          </cell>
+          <cell r="B156">
+            <v>-9.1105162387093339E-4</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>2.7292695985936279E-2</v>
+          </cell>
+          <cell r="B157">
+            <v>-9.7254166509642438E-4</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>2.5995329138140379E-2</v>
+          </cell>
+          <cell r="B158">
+            <v>-6.0360141774347766E-4</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>2.592570053704903E-2</v>
+          </cell>
+          <cell r="B159">
+            <v>-1.116810879395489E-4</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>2.6518059412061399E-2</v>
+          </cell>
+          <cell r="B160">
+            <v>-7.8807154141995119E-4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>2.5794657955137461E-2</v>
+          </cell>
+          <cell r="B161">
+            <v>-4.8062133529249579E-4</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>2.571570716350963E-2</v>
+          </cell>
+          <cell r="B162">
+            <v>-3.5764125284151347E-4</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>2.5722294669620019E-2</v>
+          </cell>
+          <cell r="B163">
+            <v>-2.9615121161602232E-4</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>2.6314936231207599E-2</v>
+          </cell>
+          <cell r="B164">
+            <v>-7.265815001944603E-4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>2.5827477998818311E-2</v>
+          </cell>
+          <cell r="B165">
+            <v>-1.7317112916504E-4</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>2.5879915210005489E-2</v>
+          </cell>
+          <cell r="B166">
+            <v>-5.4211137651798667E-4</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>2.5759595972972539E-2</v>
+          </cell>
+          <cell r="B167">
+            <v>-2.34661170390531E-4</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>2.7102559603548081E-2</v>
+          </cell>
+          <cell r="B168">
+            <v>1.474396017604039E-4</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>2.75678568870328E-2</v>
+          </cell>
+          <cell r="B169">
+            <v>-2.2150064559254331E-4</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>2.7107834097156329E-2</v>
+          </cell>
+          <cell r="B170">
+            <v>8.5949560534912933E-5</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>2.729801141797723E-2</v>
+          </cell>
+          <cell r="B171">
+            <v>-9.8520563141560414E-5</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>2.8435457916189968E-2</v>
+          </cell>
+          <cell r="B172">
+            <v>-4.6746081049450728E-4</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>2.7744578326780071E-2</v>
+          </cell>
+          <cell r="B173">
+            <v>-2.8299068681803381E-4</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>2.741884996905684E-2</v>
+          </cell>
+          <cell r="B174">
+            <v>-1.600106043670518E-4</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>2.7205716579333489E-2</v>
+          </cell>
+          <cell r="B175">
+            <v>-3.7030521916069488E-5</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>2.714225663578226E-2</v>
+          </cell>
+          <cell r="B176">
+            <v>2.445951930942181E-5</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>2.8178997379441649E-2</v>
+          </cell>
+          <cell r="B177">
+            <v>-4.0597076926901602E-4</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>2.7948488567119099E-2</v>
+          </cell>
+          <cell r="B178">
+            <v>-3.444807280435254E-4</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>2.8471329502319901E-2</v>
+          </cell>
+          <cell r="B179">
+            <v>-3.1568954029908598E-4</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>2.768874649199736E-2</v>
+          </cell>
+          <cell r="B180">
+            <v>-8.2393341716309205E-6</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>2.7615596651850559E-2</v>
+          </cell>
+          <cell r="B181">
+            <v>5.3250707053861071E-5</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>2.8708031425054299E-2</v>
+          </cell>
+          <cell r="B182">
+            <v>-3.7717958152457692E-4</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>2.8260637509194251E-2</v>
+          </cell>
+          <cell r="B183">
+            <v>-2.5419949907359483E-4</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>2.7790172356916609E-2</v>
+          </cell>
+          <cell r="B184">
+            <v>-6.9729375397121275E-5</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>2.7554938779152209E-2</v>
+          </cell>
+          <cell r="B185">
+            <v>1.7623078950484319E-4</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>2.7570947898937812E-2</v>
+          </cell>
+          <cell r="B186">
+            <v>1.1474074827935189E-4</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>2.807654100296407E-2</v>
+          </cell>
+          <cell r="B187">
+            <v>-1.9270945784810359E-4</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>2.7919566085897671E-2</v>
+          </cell>
+          <cell r="B188">
+            <v>-1.312194166226127E-4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>2.8226595885541921E-2</v>
+          </cell>
+          <cell r="B189">
+            <v>2.0551853572808399E-5</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>2.8474012230602259E-2</v>
+          </cell>
+          <cell r="B190">
+            <v>-1.0242822887817331E-4</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>2.8144246781131921E-2</v>
+          </cell>
+          <cell r="B191">
+            <v>8.2041894798300081E-5</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>2.833662466072432E-2</v>
+          </cell>
+          <cell r="B192">
+            <v>-4.0938187652682273E-5</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>2.8063480369802621E-2</v>
+          </cell>
+          <cell r="B193">
+            <v>2.0502197724928239E-4</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>2.8638364850718061E-2</v>
+          </cell>
+          <cell r="B194">
+            <v>-1.6391827010366471E-4</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>2.808982078863188E-2</v>
+          </cell>
+          <cell r="B195">
+            <v>1.4353193602379091E-4</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>2.9046059274150701E-2</v>
+          </cell>
+          <cell r="B196">
+            <v>-2.8689835255464721E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>2.8829221349281009E-2</v>
+          </cell>
+          <cell r="B197">
+            <v>-2.2540831132915521E-4</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>2.8625191267383499E-2</v>
+          </cell>
+          <cell r="B198">
+            <v>2.3381316499372119E-4</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>2.8816195334530351E-2</v>
+          </cell>
+          <cell r="B199">
+            <v>4.9343041317247907E-5</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>2.8725153447829121E-2</v>
+          </cell>
+          <cell r="B200">
+            <v>1.108330825427396E-4</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>2.893429245692606E-2</v>
+          </cell>
+          <cell r="B201">
+            <v>-1.2146999908242639E-5</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>2.9250266549880971E-2</v>
+          </cell>
+          <cell r="B202">
+            <v>-1.351270823592252E-4</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>2.866142461765446E-2</v>
+          </cell>
+          <cell r="B203">
+            <v>1.7232312376823039E-4</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>2.907911518386842E-2</v>
+          </cell>
+          <cell r="B204">
+            <v>-7.3637041133734195E-5</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>2.9447287482383219E-2</v>
+          </cell>
+          <cell r="B205">
+            <v>-1.9661712358471609E-4</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>2.9909172680631729E-2</v>
+          </cell>
+          <cell r="B206">
+            <v>-1.0633589461478629E-4</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>2.9282671592155699E-2</v>
+          </cell>
+          <cell r="B207">
+            <v>2.0111431151266959E-4</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>2.9237007114388439E-2</v>
+          </cell>
+          <cell r="B208">
+            <v>2.6260435273816051E-4</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>2.9355214521613091E-2</v>
+          </cell>
+          <cell r="B209">
+            <v>1.3962427028717871E-4</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>2.9731782195647261E-2</v>
+          </cell>
+          <cell r="B210">
+            <v>-4.4845853389294928E-5</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>2.9454437307720641E-2</v>
+          </cell>
+          <cell r="B211">
+            <v>7.8134229061687039E-5</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>2.958007146860208E-2</v>
+          </cell>
+          <cell r="B212">
+            <v>1.6644187836196621E-5</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>2.9895851889582149E-2</v>
+          </cell>
+          <cell r="B213">
+            <v>2.9139554048259988E-4</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>3.0031336365587191E-2</v>
+          </cell>
+          <cell r="B214">
+            <v>1.6841545803161819E-4</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>3.042895283223937E-2</v>
+          </cell>
+          <cell r="B215">
+            <v>-1.6054665644855739E-5</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>3.013823163285469E-2</v>
+          </cell>
+          <cell r="B216">
+            <v>1.069254168061261E-4</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>3.027088273368991E-2</v>
+          </cell>
+          <cell r="B217">
+            <v>4.5435375580635502E-5</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>2.995047270610459E-2</v>
+          </cell>
+          <cell r="B218">
+            <v>2.2990549925710839E-4</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>3.0864550864726371E-2</v>
+          </cell>
+          <cell r="B219">
+            <v>1.3571660455056529E-4</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>3.1003716231292749E-2</v>
+          </cell>
+          <cell r="B220">
+            <v>7.4226563325074634E-5</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>3.0661786320250659E-2</v>
+          </cell>
+          <cell r="B221">
+            <v>2.5869668700154793E-4</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>3.0598687891564641E-2</v>
+          </cell>
+          <cell r="B222">
+            <v>3.2018672822703941E-4</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>3.0750480865844618E-2</v>
+          </cell>
+          <cell r="B223">
+            <v>1.972066457760571E-4</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>3.1342555837893277E-2</v>
+          </cell>
+          <cell r="B224">
+            <v>3.489779159714784E-4</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>3.1413656754074738E-2</v>
+          </cell>
+          <cell r="B225">
+            <v>2.8748787474598692E-4</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>3.1509702447703833E-2</v>
+          </cell>
+          <cell r="B226">
+            <v>2.2599783352049611E-4</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>3.1630465685656278E-2</v>
+          </cell>
+          <cell r="B227">
+            <v>1.6450779229500471E-4</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>3.2306175702015702E-2</v>
+          </cell>
+          <cell r="B228">
+            <v>2.5478902126493518E-4</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>3.2203243412138788E-2</v>
+          </cell>
+          <cell r="B229">
+            <v>3.1627906249042639E-4</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>3.2124605483990799E-2</v>
+          </cell>
+          <cell r="B230">
+            <v>3.7776910371591728E-4</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>3.2942117628306247E-2</v>
+          </cell>
+          <cell r="B231">
+            <v>4.0656029146035638E-4</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
+            <v>3.3027841393960589E-2</v>
+          </cell>
+          <cell r="B232">
+            <v>3.4507025023486527E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>3.3792518631448588E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>4.3535147920479591E-4</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Hang Seng : 100%</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>S&amp;P 500 : 100%</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>CAC40 : 100%</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.557685611329244E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-2.385688361271439E-4</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>CAC40 : 15%
+S&amp;P 500 : 70%
+Hang Seng : 15%</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.5946509483569351E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-2.6345235813497048E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.589796185441803E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-3.2494239936046131E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.587989558544369E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-3.8643244058595197E-4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2.589237448135424E-2</v>
+          </cell>
+          <cell r="B6">
+            <v>-4.4792248181144362E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2.907777022501672E-2</v>
+          </cell>
+          <cell r="B7">
+            <v>-1.3087830589683189E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2.5935354451415159E-2</v>
+          </cell>
+          <cell r="B8">
+            <v>-5.0941252303693526E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2.6008684284812171E-2</v>
+          </cell>
+          <cell r="B9">
+            <v>-5.7090256426242604E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2.611210829102412E-2</v>
+          </cell>
+          <cell r="B10">
+            <v>-6.3239260548791682E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.6245270698660079E-2</v>
+          </cell>
+          <cell r="B11">
+            <v>-6.9388264671340792E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B12">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.6407721638913861E-2</v>
+          </cell>
+          <cell r="B13">
+            <v>-7.5537268793889913E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2.6598924484636841E-2</v>
+          </cell>
+          <cell r="B14">
+            <v>-8.1686272916439056E-4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2.602536789399252E-2</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.019623169094794E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2.8683266061045039E-2</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.2472930177428281E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2.7065056942623261E-2</v>
+          </cell>
+          <cell r="B17">
+            <v>-9.3984281161537287E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2.7338559020080269E-2</v>
+          </cell>
+          <cell r="B18">
+            <v>-1.0013328528408641E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2.831120407307269E-2</v>
+          </cell>
+          <cell r="B19">
+            <v>-1.185802976517337E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2.7637977580677361E-2</v>
+          </cell>
+          <cell r="B20">
+            <v>-1.062822894066355E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2.6818264276218671E-2</v>
+          </cell>
+          <cell r="B21">
+            <v>-8.7835277038988187E-4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2.796248010592544E-2</v>
+          </cell>
+          <cell r="B22">
+            <v>-1.1243129352918461E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>-6.5364022119982694E-4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>-3.8739808944915702E-5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>-1.0022985017040731E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>-1.022580468552774E-3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>-1.6171989139589761E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>-2.2320993262138931E-4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>-9.6109042732728277E-4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>-3.4619001507237132E-4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>-8.9960038610179145E-4</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-4.0768005629786269E-4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>-8.3811034487630057E-4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>-4.6917009752335369E-4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>-7.7662030365080925E-4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2.2750232280575231E-5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>8.4240273506066651E-5</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>-5.9215017997433551E-4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>-7.1513026242531782E-4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>-2.8469997384688033E-4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>-5.3066013874884517E-4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>2.1066532162165568E-3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>-2.3383374047734369E-4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>-4.1830386415381748E-4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>-7.2575407028127288E-4</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>1.212642442462007E-5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>1.3510650687560241E-4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>7.3616465650111943E-5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>1.9659654810109381E-4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>-5.4128394660479958E-4</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>-2.9532378170283539E-4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>-6.0277398783029101E-4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>-6.64264029055782E-4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>-1.108536580263618E-4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>-1.723436992518531E-4</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>-7.8724411150676464E-4</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>-8.4873415273225552E-4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>-3.5681382292832649E-4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>-4.9363616800871169E-5</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>-4.7979390537930859E-4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>3.08952822696121E-4</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>6.2992657794156339E-5</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>-5.9987424656825729E-5</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>1.2448269901964759E-4</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>-1.8296750710780819E-4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>-4.9041771323526365E-4</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>-1.2147746588231699E-4</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>-3.674376307842815E-4</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>-4.2892767200977249E-4</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-2.4445754833329918E-4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>-6.7488783691173663E-4</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>-6.1339779568624596E-4</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>2.4746278147062969E-4</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>-3.0594758955879001E-4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>1.8597274024513869E-4</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>-5.5190775446075464E-4</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>1.502616568665413E-6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>-2.5508135618925441E-4</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>4.2130909729114831E-4</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>1.7534893238918401E-4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>-1.3210127373827161E-4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>-9.1211912872894018E-6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>-3.7806143864023618E-4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>2.9832901484016632E-4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>1.1385889116369271E-4</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>5.2368849938201488E-5</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>-3.1657139741474529E-4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>3.5981905606565688E-4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>2.36838973614675E-4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>-7.0611232512780668E-5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>-5.0104152109121849E-4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>-1.9359131496376301E-4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>-4.3955147986572739E-4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>5.3366537188617551E-4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>1.64725124533229E-4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>2.2621516575871981E-4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>-2.042151228197182E-4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>-1.4272508159422699E-4</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>-8.1235040368735472E-5</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>-1.974499914324419E-5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>4.1068528943519309E-4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>-2.6570516404520909E-4</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>3.4919524820970209E-4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>4.1745042082246583E-5</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>-3.2719520527070041E-4</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>1.032350833077377E-4</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>2.8770520698421121E-4</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>4.7217533066068441E-4</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>-3.0368806999199692E-5</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>9.2611275451782597E-5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2.1559135790276521E-4</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>2.7708139912825609E-4</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>3.1121234226291068E-5</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>1.5410131667727359E-4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>3.3857144035374698E-4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>-1.533488894501817E-4</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>4.0006148157923841E-4</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>5.8453160525571177E-4</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>4.6155152280472951E-4</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>5.2304156403022055E-4</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>-9.1858848224690641E-5</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>6.4602164648120265E-4</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>7.5837792107623001E-4</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>5.1241775617426549E-4</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>3.2794763249779219E-4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>2.6645759127230109E-4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>6.9688787985073902E-4</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>2.0497426370336451E-5</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>4.5092771494877472E-4</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>1.4347750882131921E-4</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>2.049675500468099E-4</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>3.894376737232834E-4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>6.3539783862524781E-4</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>5.7390779739975649E-4</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>8.1987467595827441E-5</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>6.8626407199478417E-4</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>3.1732382464183729E-4</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>3.7881386586732828E-4</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>8.7073419567125748E-4</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>7.4775411322027517E-4</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>1.943437421908549E-4</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>2.5583378341634608E-4</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>6.2477403076929296E-4</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>4.4030390709281949E-4</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>5.0179394831831054E-4</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>8.0924415444576616E-4</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>5.6328398954380175E-4</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>-1.196426784373292E-3</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>-5.8152637211838078E-4</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>-1.1349367431478009E-3</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>-1.07344670192231E-3</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>-1.0119566606968189E-3</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>-9.5046661947132771E-4</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>-3.3556620721641658E-4</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>-7.6599649579485397E-4</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>-8.2748653702034562E-4</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>-8.8897657824583629E-4</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>-5.2003633089289011E-4</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>-2.8116001088961041E-5</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>-7.045064545693632E-4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>-3.9705624844190731E-4</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>-2.7407616599092521E-4</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>-2.1258612476543419E-4</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>-6.4301641334387209E-4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>-8.9606042314451648E-5</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>-4.5854628966739841E-4</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>-1.510960835399426E-4</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>9.8309047026628473E-4</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>6.1415022291333768E-4</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>9.2160042904079341E-4</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>7.3713030536432021E-4</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>3.6819005801137338E-4</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>5.5266018168784647E-4</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>6.7564026413882911E-4</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>7.9862034658981121E-4</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>8.6011038781530242E-4</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>4.2968009923686438E-4</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>4.911701404623557E-4</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>6.0352641505738241E-4</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>9.1097662118483846E-4</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>9.7246666241032989E-4</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>5.4203637383189174E-4</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>6.6501645628287416E-4</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>8.4948657995934757E-4</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>1.0954467448613121E-3</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>1.033956703635821E-3</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>7.2650649750836504E-4</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>7.8799653873385658E-4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>1.0233328957798659E-3</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>9.0035281332888329E-4</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>1.084822937005357E-3</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>9.6184285455437461E-4</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>1.207803019456339E-3</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>8.388627721033923E-4</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>1.1463129782308479E-3</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>7.158826896524102E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>7.773727308779013E-4</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>1.3201592940513659E-3</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>1.1356891703748931E-3</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>1.197179211600384E-3</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>1.074199129149402E-3</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>9.5121904669841976E-4</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>1.2586692528258759E-3</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>1.0127090879239111E-3</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>8.8972900547292855E-4</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>1.0635753212934469E-3</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>1.3710255274209031E-3</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>1.4325155686463931E-3</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>1.3095354861954111E-3</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>1.125065362518938E-3</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>1.24804544496992E-3</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>1.1865554037444289E-3</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>1.5448718432414211E-3</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>1.4218917607904391E-3</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>1.2374216371139649E-3</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>1.360401719564948E-3</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>1.2989116783394569E-3</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>1.48338180201593E-3</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>1.4727579941599749E-3</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>1.411267952934484E-3</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>1.5957380766109569E-3</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>1.6572281178364491E-3</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>1.534248035385466E-3</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>1.769584392431476E-3</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>1.7080943512059849E-3</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>1.646604309980493E-3</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>1.5851142687550021E-3</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>1.7589605845755201E-3</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>1.8204506258010121E-3</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>1.881940667026503E-3</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>1.9942969416215299E-3</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>1.9328069003960379E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>2.1066532162165568E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>4.7217533066068441E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -7777,8 +10963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605C774B-18B1-5440-B955-15DACAD5615E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7997,16 +11183,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/results/graphiques_2000_2010.xlsx
+++ b/results/graphiques_2000_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/hugo_demenez_student_junia_com/Documents/MFE/Memoire_M2_2023/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DA70766D-A1A1-CD45-95CA-5D4F21B85DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{355454FD-F2AD-FF4E-84B1-EADE34E2C495}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DA70766D-A1A1-CD45-95CA-5D4F21B85DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6731CB-5935-684B-A048-A62122DDCA05}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{8C826F5C-FF06-B64A-896B-BC6D26E22854}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29000" windowHeight="21100" xr2:uid="{8C826F5C-FF06-B64A-896B-BC6D26E22854}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphiques" sheetId="2" r:id="rId1"/>
@@ -147,9 +147,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng'!$A$2:$A$22</c:f>
+              <c:f>'[1]Hang Seng'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.9493816030783111E-2</c:v>
@@ -219,9 +219,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng'!$B$2:$B$22</c:f>
+              <c:f>'[1]Hang Seng'!$B$2:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-1.37027310019381E-3</c:v>
@@ -326,9 +326,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng'!$A$23:$A$232</c:f>
+              <c:f>'[1]Hang Seng'!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>2.674659259894838E-2</c:v>
@@ -965,9 +965,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng'!$B$23:$B$232</c:f>
+              <c:f>'[1]Hang Seng'!$B$23:$B$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>-8.2077039490100259E-4</c:v>
@@ -1651,7 +1651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E995B3D-D786-EB46-B8D1-EB7E4ADBE4B1}" type="CELLRANGE">
+                    <a:fld id="{A89B68BD-1672-E54A-929B-72D88B29C0B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1691,7 +1691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49AC22F6-9527-4E4B-B463-F2A56CCB3FEA}" type="CELLRANGE">
+                    <a:fld id="{03A2F346-7D7F-DF42-B9AA-7163F6953485}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1731,7 +1731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CEE7572-956C-EC4E-9CA0-80763D05839C}" type="CELLRANGE">
+                    <a:fld id="{6524B789-6C40-5244-865A-99A5B0D7C3D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1771,7 +1771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87F4B041-A6F8-2246-AED0-9E5C0C389D18}" type="CELLRANGE">
+                    <a:fld id="{8643B468-C688-894D-8DCC-2582035F6B91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1861,7 +1861,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng_extremes'!$A$2:$A$5</c:f>
+              <c:f>'[1]Hang Seng_extremes'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1882,7 +1882,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Hang Seng_extremes'!$B$2:$B$5</c:f>
+              <c:f>'[1]Hang Seng_extremes'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1905,7 +1905,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'[2]Hang Seng_extremes'!$C$2:$C$5</c15:f>
+                <c15:f>'[1]Hang Seng_extremes'!$C$2:$C$5</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -2296,9 +2296,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Taiwan!$A$2:$A$22</c:f>
+              <c:f>[1]Taiwan!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.9493816030783111E-2</c:v>
@@ -2368,9 +2368,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Taiwan!$B$2:$B$22</c:f>
+              <c:f>[1]Taiwan!$B$2:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-1.37027310019381E-3</c:v>
@@ -2475,7 +2475,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Taiwan!$A$23:$A$232</c:f>
+              <c:f>[2]Taiwan!$A$23:$A$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
@@ -3114,7 +3114,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Taiwan!$B$23:$B$232</c:f>
+              <c:f>[2]Taiwan!$B$23:$B$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
@@ -3800,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F842ABAC-5F80-634A-B4B8-5651EC6A523A}" type="CELLRANGE">
+                    <a:fld id="{3BDEAB2C-6CD5-2740-9B01-A44B873DE4B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3839,7 +3839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{701B2FA0-E2EB-4740-912C-8ADA52A85E33}" type="CELLRANGE">
+                    <a:fld id="{A8ADC2E1-857E-4847-B0DC-FE1885E8EE07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3878,7 +3878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03F50A26-4AC6-2E49-8613-2138C6CA7DDD}" type="CELLRANGE">
+                    <a:fld id="{4C176CD1-CD3B-CB4E-84BB-E6CB0DCC8B66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3917,7 +3917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{658814FB-6280-C64E-AEDD-68FB6737AA29}" type="CELLRANGE">
+                    <a:fld id="{D42D8EF5-1978-7B40-B2CC-D4A376533592}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4005,7 +4005,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Taiwan_extremes!$A$2:$A$5</c:f>
+              <c:f>[2]Taiwan_extremes!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4026,7 +4026,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Taiwan_extremes!$B$2:$B$5</c:f>
+              <c:f>[2]Taiwan_extremes!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4049,7 +4049,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]Taiwan_extremes!$C$2:$C$5</c15:f>
+                <c15:f>[2]Taiwan_extremes!$C$2:$C$5</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -5586,6 +5586,2097 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hang Seng"/>
+      <sheetName val="Hang Seng_extremes"/>
+      <sheetName val="Sao Paolo"/>
+      <sheetName val="Sao Paolo_extremes"/>
+      <sheetName val="Taiwan"/>
+      <sheetName val="Taiwan_extremes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.5946509483569351E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-2.6345235813497048E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.589796185441803E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-3.2494239936046131E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.587989558544369E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-3.8643244058595197E-4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2.589237448135424E-2</v>
+          </cell>
+          <cell r="B6">
+            <v>-4.4792248181144362E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2.907777022501672E-2</v>
+          </cell>
+          <cell r="B7">
+            <v>-1.3087830589683189E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2.5935354451415159E-2</v>
+          </cell>
+          <cell r="B8">
+            <v>-5.0941252303693526E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2.6008684284812171E-2</v>
+          </cell>
+          <cell r="B9">
+            <v>-5.7090256426242604E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2.611210829102412E-2</v>
+          </cell>
+          <cell r="B10">
+            <v>-6.3239260548791682E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.6245270698660079E-2</v>
+          </cell>
+          <cell r="B11">
+            <v>-6.9388264671340792E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B12">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.6407721638913861E-2</v>
+          </cell>
+          <cell r="B13">
+            <v>-7.5537268793889913E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2.6598924484636841E-2</v>
+          </cell>
+          <cell r="B14">
+            <v>-8.1686272916439056E-4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2.602536789399252E-2</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.019623169094794E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2.8683266061045039E-2</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.2472930177428281E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2.7065056942623261E-2</v>
+          </cell>
+          <cell r="B17">
+            <v>-9.3984281161537287E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2.7338559020080269E-2</v>
+          </cell>
+          <cell r="B18">
+            <v>-1.0013328528408641E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2.831120407307269E-2</v>
+          </cell>
+          <cell r="B19">
+            <v>-1.185802976517337E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2.7637977580677361E-2</v>
+          </cell>
+          <cell r="B20">
+            <v>-1.062822894066355E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2.6818264276218671E-2</v>
+          </cell>
+          <cell r="B21">
+            <v>-8.7835277038988187E-4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2.796248010592544E-2</v>
+          </cell>
+          <cell r="B22">
+            <v>-1.1243129352918461E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2.674659259894838E-2</v>
+          </cell>
+          <cell r="B23">
+            <v>-8.2077039490100259E-4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2.5640799135072469E-2</v>
+          </cell>
+          <cell r="B24">
+            <v>-2.0586998264609171E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2.5614972637368821E-2</v>
+          </cell>
+          <cell r="B25">
+            <v>-2.6736002387158349E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2.8741080066173801E-2</v>
+          </cell>
+          <cell r="B26">
+            <v>-1.18971064225395E-3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2.562000311494543E-2</v>
+          </cell>
+          <cell r="B27">
+            <v>-3.2885006509707421E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2.5655872416955799E-2</v>
+          </cell>
+          <cell r="B28">
+            <v>-3.9034010632256548E-4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2.8348739626526578E-2</v>
+          </cell>
+          <cell r="B29">
+            <v>-1.128220601028458E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2.581950289241897E-2</v>
+          </cell>
+          <cell r="B30">
+            <v>-5.1332018877354752E-4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2.7979168803301209E-2</v>
+          </cell>
+          <cell r="B31">
+            <v>-1.066730559802968E-3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2.594668456436872E-2</v>
+          </cell>
+          <cell r="B32">
+            <v>-5.7481022999903927E-4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2.7633281182358499E-2</v>
+          </cell>
+          <cell r="B33">
+            <v>-1.005240518577476E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2.6103556148975339E-2</v>
+          </cell>
+          <cell r="B34">
+            <v>-6.3630027122453016E-4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2.7311976573503292E-2</v>
+          </cell>
+          <cell r="B35">
+            <v>-9.4375047735198556E-4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2.5697389572206589E-2</v>
+          </cell>
+          <cell r="B36">
+            <v>-1.4437994142060091E-4</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2.5784541392761099E-2</v>
+          </cell>
+          <cell r="B37">
+            <v>-8.288990019510952E-5</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2.650416064523348E-2</v>
+          </cell>
+          <cell r="B38">
+            <v>-7.5928035367551193E-4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>2.7016132093039089E-2</v>
+          </cell>
+          <cell r="B39">
+            <v>-8.8226043612649446E-4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>2.572245153186322E-2</v>
+          </cell>
+          <cell r="B40">
+            <v>-4.5183014754805658E-4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>2.6289586166982661E-2</v>
+          </cell>
+          <cell r="B41">
+            <v>-6.9779031245002104E-4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>3.3792518631448588E-2</v>
+          </cell>
+          <cell r="B42">
+            <v>4.3535147920479591E-4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>2.5827927002194939E-2</v>
+          </cell>
+          <cell r="B43">
+            <v>-4.8452900102910782E-4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>2.633186620986841E-2</v>
+          </cell>
+          <cell r="B44">
+            <v>-6.6899912470558178E-4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>2.772735091758138E-2</v>
+          </cell>
+          <cell r="B45">
+            <v>-9.7644933083303718E-4</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>2.557685611329244E-2</v>
+          </cell>
+          <cell r="B46">
+            <v>-2.385688361271439E-4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>2.5636134793618561E-2</v>
+          </cell>
+          <cell r="B47">
+            <v>-1.155887536761618E-4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>2.5591067605006301E-2</v>
+          </cell>
+          <cell r="B48">
+            <v>-1.7707879490165229E-4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>2.5711895430282791E-2</v>
+          </cell>
+          <cell r="B49">
+            <v>-5.4098712450670639E-5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>2.6810412567012231E-2</v>
+          </cell>
+          <cell r="B50">
+            <v>-7.9197920715656366E-4</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>2.5966557493244471E-2</v>
+          </cell>
+          <cell r="B51">
+            <v>-5.4601904225459969E-4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>2.7090330086137111E-2</v>
+          </cell>
+          <cell r="B52">
+            <v>-8.534692483820552E-4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>2.739626324532168E-2</v>
+          </cell>
+          <cell r="B53">
+            <v>-9.1495928960754608E-4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>2.5641094048384688E-2</v>
+          </cell>
+          <cell r="B54">
+            <v>-3.61548918578126E-4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>2.571931204134531E-2</v>
+          </cell>
+          <cell r="B55">
+            <v>-4.2303895980361699E-4</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>2.8082703421769741E-2</v>
+          </cell>
+          <cell r="B56">
+            <v>-1.037939372058529E-3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>2.846141190299762E-2</v>
+          </cell>
+          <cell r="B57">
+            <v>-1.0994294132840191E-3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>2.6134725870723619E-2</v>
+          </cell>
+          <cell r="B58">
+            <v>-6.0750908348009025E-4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>2.5593551718836659E-2</v>
+          </cell>
+          <cell r="B59">
+            <v>-3.0005887735263512E-4</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>2.655733332470693E-2</v>
+          </cell>
+          <cell r="B60">
+            <v>-7.3048916593107267E-4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>2.5708343464430069E-2</v>
+          </cell>
+          <cell r="B61">
+            <v>-2.530752470623145E-5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>2.5636567337384331E-2</v>
+          </cell>
+          <cell r="B62">
+            <v>-2.7126768960819569E-4</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>2.578526471137434E-2</v>
+          </cell>
+          <cell r="B63">
+            <v>-3.9424777205917822E-4</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>2.560825412540842E-2</v>
+          </cell>
+          <cell r="B64">
+            <v>-2.0977764838270429E-4</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>2.6054791142928239E-2</v>
+          </cell>
+          <cell r="B65">
+            <v>-5.1722785451016032E-4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>2.7229743670620841E-2</v>
+          </cell>
+          <cell r="B66">
+            <v>-8.2467806063761637E-4</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>2.5905120384478231E-2</v>
+          </cell>
+          <cell r="B67">
+            <v>-4.5573781328466878E-4</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>2.66771763951014E-2</v>
+          </cell>
+          <cell r="B68">
+            <v>-7.0169797818663362E-4</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>2.694020403889353E-2</v>
+          </cell>
+          <cell r="B69">
+            <v>-7.6318801941212451E-4</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2.6233766682227572E-2</v>
+          </cell>
+          <cell r="B70">
+            <v>-5.7871789573565142E-4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2.8248910444671191E-2</v>
+          </cell>
+          <cell r="B71">
+            <v>-1.009148184314089E-3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2.7884980082378288E-2</v>
+          </cell>
+          <cell r="B72">
+            <v>-9.4765814308859803E-4</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2.5644206924214461E-2</v>
+          </cell>
+          <cell r="B73">
+            <v>-8.6797565931722305E-5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>2.6441451938994089E-2</v>
+          </cell>
+          <cell r="B74">
+            <v>-6.4020793696114252E-4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>2.561080372279232E-2</v>
+          </cell>
+          <cell r="B75">
+            <v>-1.4828760715721349E-4</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>2.75449592583989E-2</v>
+          </cell>
+          <cell r="B76">
+            <v>-8.8616810186310704E-4</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2.5695641338671131E-2</v>
+          </cell>
+          <cell r="B77">
+            <v>-3.3275773083368701E-4</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2.6862797560858059E-2</v>
+          </cell>
+          <cell r="B78">
+            <v>-6.729067904421948E-4</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2.5773914061254479E-2</v>
+          </cell>
+          <cell r="B79">
+            <v>3.4836630382078739E-6</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2.5748701819475011E-2</v>
+          </cell>
+          <cell r="B80">
+            <v>-2.4247650186375619E-4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2.6399914727547061E-2</v>
+          </cell>
+          <cell r="B81">
+            <v>-5.4992670799121194E-4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2.6050471710171191E-2</v>
+          </cell>
+          <cell r="B82">
+            <v>-4.2694662554022979E-4</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>2.7433378607894542E-2</v>
+          </cell>
+          <cell r="B83">
+            <v>-7.9588687289317646E-4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>2.569984744653759E-2</v>
+          </cell>
+          <cell r="B84">
+            <v>-1.1949641941277411E-4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>2.5819074903986401E-2</v>
+          </cell>
+          <cell r="B85">
+            <v>-3.0396654308924759E-4</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>2.591978213403278E-2</v>
+          </cell>
+          <cell r="B86">
+            <v>-3.6545658431473891E-4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>2.7135020371938989E-2</v>
+          </cell>
+          <cell r="B87">
+            <v>-7.3439683166768568E-4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>2.5721540693974729E-2</v>
+          </cell>
+          <cell r="B88">
+            <v>-5.8006378187283241E-5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>2.570891198295739E-2</v>
+          </cell>
+          <cell r="B89">
+            <v>-1.8098646063826549E-4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>2.6210695149838609E-2</v>
+          </cell>
+          <cell r="B90">
+            <v>-4.8843666676572116E-4</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>2.8105099266273512E-2</v>
+          </cell>
+          <cell r="B91">
+            <v>-9.1886695534415877E-4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>2.6617512063947291E-2</v>
+          </cell>
+          <cell r="B92">
+            <v>-6.1141674921670315E-4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>2.7757029498331889E-2</v>
+          </cell>
+          <cell r="B93">
+            <v>-8.5737691411866778E-4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>2.5908082400542098E-2</v>
+          </cell>
+          <cell r="B94">
+            <v>3.2274850782647257E-5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>2.6121805083116359E-2</v>
+          </cell>
+          <cell r="B95">
+            <v>-3.3666539657029959E-4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>2.6010414054263291E-2</v>
+          </cell>
+          <cell r="B96">
+            <v>-2.7517535534480892E-4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>2.7393474273965188E-2</v>
+          </cell>
+          <cell r="B97">
+            <v>-7.056056439232462E-4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>2.711284585690792E-2</v>
+          </cell>
+          <cell r="B98">
+            <v>-6.4411560269775554E-4</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>2.6858739389463988E-2</v>
+          </cell>
+          <cell r="B99">
+            <v>-5.82625561472264E-4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2.6631914054203461E-2</v>
+          </cell>
+          <cell r="B100">
+            <v>-5.2113552024677279E-4</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>2.5857482775934242E-2</v>
+          </cell>
+          <cell r="B101">
+            <v>-9.0705231668335157E-5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>2.769981856628264E-2</v>
+          </cell>
+          <cell r="B102">
+            <v>-7.6709568514873774E-4</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>2.5878021497555088E-2</v>
+          </cell>
+          <cell r="B103">
+            <v>-1.521952728938262E-4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>2.6433072168373751E-2</v>
+          </cell>
+          <cell r="B104">
+            <v>-4.5964547902128212E-4</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>2.8031035619116879E-2</v>
+          </cell>
+          <cell r="B105">
+            <v>-8.2858572637422841E-4</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>2.6262849346464091E-2</v>
+          </cell>
+          <cell r="B106">
+            <v>-3.9815543779579048E-4</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>2.5929058432900151E-2</v>
+          </cell>
+          <cell r="B107">
+            <v>-2.1368531411931709E-4</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>2.5867514914583271E-2</v>
+          </cell>
+          <cell r="B108">
+            <v>-2.921519044284436E-5</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>2.7425559126657319E-2</v>
+          </cell>
+          <cell r="B109">
+            <v>-6.1532441495331606E-4</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>2.692806268641924E-2</v>
+          </cell>
+          <cell r="B110">
+            <v>-4.9234433250233407E-4</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>2.6540644313057471E-2</v>
+          </cell>
+          <cell r="B111">
+            <v>-3.693642500513517E-4</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>2.6389783269467039E-2</v>
+          </cell>
+          <cell r="B112">
+            <v>-3.0787420882586028E-4</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>2.7163397799105149E-2</v>
+          </cell>
+          <cell r="B113">
+            <v>-5.5383437372782506E-4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>2.6720262602819931E-2</v>
+          </cell>
+          <cell r="B114">
+            <v>-4.3085429127684308E-4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>2.6268174944888999E-2</v>
+          </cell>
+          <cell r="B115">
+            <v>-2.4638416760036918E-4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>2.8027272444003309E-2</v>
+          </cell>
+          <cell r="B116">
+            <v>-7.3830449740429859E-4</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>2.61762270453514E-2</v>
+          </cell>
+          <cell r="B117">
+            <v>-1.848941263748787E-4</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>2.6080977077653701E-2</v>
+          </cell>
+          <cell r="B118">
+            <v>-4.2400269840503642E-7</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>2.611425287449206E-2</v>
+          </cell>
+          <cell r="B119">
+            <v>-1.2340408514938719E-4</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>2.608246609361714E-2</v>
+          </cell>
+          <cell r="B120">
+            <v>-6.1914043923895585E-5</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>2.771378538373569E-2</v>
+          </cell>
+          <cell r="B121">
+            <v>-6.7681445617880738E-4</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>2.6109791010158388E-2</v>
+          </cell>
+          <cell r="B122">
+            <v>6.1066038527086389E-5</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>2.6377490494729341E-2</v>
+          </cell>
+          <cell r="B123">
+            <v>8.9857226271525717E-5</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>2.6488337409647698E-2</v>
+          </cell>
+          <cell r="B124">
+            <v>-1.561029386304387E-4</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>2.6881828631882751E-2</v>
+          </cell>
+          <cell r="B125">
+            <v>-3.4057306230691179E-4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>2.7070203696192979E-2</v>
+          </cell>
+          <cell r="B126">
+            <v>-4.0206310353240349E-4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>2.6360287708568901E-2</v>
+          </cell>
+          <cell r="B127">
+            <v>2.8367185046034791E-5</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>2.8093837991233089E-2</v>
+          </cell>
+          <cell r="B128">
+            <v>-6.4802326843436779E-4</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>2.6590426019168851E-2</v>
+          </cell>
+          <cell r="B129">
+            <v>-2.1759297985593021E-4</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>2.7529381461962359E-2</v>
+          </cell>
+          <cell r="B130">
+            <v>-5.250431859833858E-4</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>2.7286271991268589E-2</v>
+          </cell>
+          <cell r="B131">
+            <v>-4.6355314475789432E-4</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>2.672173247570377E-2</v>
+          </cell>
+          <cell r="B132">
+            <v>-2.7908302108142118E-4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>2.63730738600217E-2</v>
+          </cell>
+          <cell r="B133">
+            <v>-3.3122856179456202E-5</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>2.6415805402115439E-2</v>
+          </cell>
+          <cell r="B134">
+            <v>-9.4612897404948009E-5</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>2.779882266650199E-2</v>
+          </cell>
+          <cell r="B135">
+            <v>-5.8653322720887701E-4</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>2.6780472590610969E-2</v>
+          </cell>
+          <cell r="B136">
+            <v>-6.5821709660508491E-5</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>2.7704134774502051E-2</v>
+          </cell>
+          <cell r="B137">
+            <v>-4.3476195701345501E-4</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>2.7480498322039641E-2</v>
+          </cell>
+          <cell r="B138">
+            <v>-3.7327191578796418E-4</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>2.6709196698692501E-2</v>
+          </cell>
+          <cell r="B139">
+            <v>1.1864841401596471E-4</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>2.672716553269637E-2</v>
+          </cell>
+          <cell r="B140">
+            <v>-4.3316684350175077E-6</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>2.8230234769870289E-2</v>
+          </cell>
+          <cell r="B141">
+            <v>-5.5774203946443775E-4</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>2.795428183031293E-2</v>
+          </cell>
+          <cell r="B142">
+            <v>-4.9625199823894665E-4</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>2.6863126035690969E-2</v>
+          </cell>
+          <cell r="B143">
+            <v>-1.2731175088599969E-4</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>2.728402437178417E-2</v>
+          </cell>
+          <cell r="B144">
+            <v>-3.117818745624727E-4</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>2.711530337800486E-2</v>
+          </cell>
+          <cell r="B145">
+            <v>-2.5029183333698208E-4</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>2.6703380612133731E-2</v>
+          </cell>
+          <cell r="B146">
+            <v>5.7158372790473787E-5</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>2.6974856109180819E-2</v>
+          </cell>
+          <cell r="B147">
+            <v>-1.8880179211149101E-4</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>2.9085977530167478E-2</v>
+          </cell>
+          <cell r="B148">
+            <v>-1.27999187122388E-3</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>2.6140500304930401E-2</v>
+          </cell>
+          <cell r="B149">
+            <v>-6.6509145896896887E-4</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>2.8681187824202741E-2</v>
+          </cell>
+          <cell r="B150">
+            <v>-1.2185018299983889E-3</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>2.8298559585208969E-2</v>
+          </cell>
+          <cell r="B151">
+            <v>-1.157011788772898E-3</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>2.7939003340432339E-2</v>
+          </cell>
+          <cell r="B152">
+            <v>-1.0955217475474069E-3</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>2.760342069715991E-2</v>
+          </cell>
+          <cell r="B153">
+            <v>-1.034031706321916E-3</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>2.5739857036056722E-2</v>
+          </cell>
+          <cell r="B154">
+            <v>-4.1913129406700458E-4</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>2.6749216335798569E-2</v>
+          </cell>
+          <cell r="B155">
+            <v>-8.495615826454424E-4</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>2.7007687195421379E-2</v>
+          </cell>
+          <cell r="B156">
+            <v>-9.1105162387093339E-4</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>2.7292695985936279E-2</v>
+          </cell>
+          <cell r="B157">
+            <v>-9.7254166509642438E-4</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>2.5995329138140379E-2</v>
+          </cell>
+          <cell r="B158">
+            <v>-6.0360141774347766E-4</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>2.592570053704903E-2</v>
+          </cell>
+          <cell r="B159">
+            <v>-1.116810879395489E-4</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>2.6518059412061399E-2</v>
+          </cell>
+          <cell r="B160">
+            <v>-7.8807154141995119E-4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>2.5794657955137461E-2</v>
+          </cell>
+          <cell r="B161">
+            <v>-4.8062133529249579E-4</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>2.571570716350963E-2</v>
+          </cell>
+          <cell r="B162">
+            <v>-3.5764125284151347E-4</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>2.5722294669620019E-2</v>
+          </cell>
+          <cell r="B163">
+            <v>-2.9615121161602232E-4</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>2.6314936231207599E-2</v>
+          </cell>
+          <cell r="B164">
+            <v>-7.265815001944603E-4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>2.5827477998818311E-2</v>
+          </cell>
+          <cell r="B165">
+            <v>-1.7317112916504E-4</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>2.5879915210005489E-2</v>
+          </cell>
+          <cell r="B166">
+            <v>-5.4211137651798667E-4</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>2.5759595972972539E-2</v>
+          </cell>
+          <cell r="B167">
+            <v>-2.34661170390531E-4</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>2.7102559603548081E-2</v>
+          </cell>
+          <cell r="B168">
+            <v>1.474396017604039E-4</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>2.75678568870328E-2</v>
+          </cell>
+          <cell r="B169">
+            <v>-2.2150064559254331E-4</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>2.7107834097156329E-2</v>
+          </cell>
+          <cell r="B170">
+            <v>8.5949560534912933E-5</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>2.729801141797723E-2</v>
+          </cell>
+          <cell r="B171">
+            <v>-9.8520563141560414E-5</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>2.8435457916189968E-2</v>
+          </cell>
+          <cell r="B172">
+            <v>-4.6746081049450728E-4</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>2.7744578326780071E-2</v>
+          </cell>
+          <cell r="B173">
+            <v>-2.8299068681803381E-4</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>2.741884996905684E-2</v>
+          </cell>
+          <cell r="B174">
+            <v>-1.600106043670518E-4</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>2.7205716579333489E-2</v>
+          </cell>
+          <cell r="B175">
+            <v>-3.7030521916069488E-5</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>2.714225663578226E-2</v>
+          </cell>
+          <cell r="B176">
+            <v>2.445951930942181E-5</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>2.8178997379441649E-2</v>
+          </cell>
+          <cell r="B177">
+            <v>-4.0597076926901602E-4</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>2.7948488567119099E-2</v>
+          </cell>
+          <cell r="B178">
+            <v>-3.444807280435254E-4</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>2.8471329502319901E-2</v>
+          </cell>
+          <cell r="B179">
+            <v>-3.1568954029908598E-4</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>2.768874649199736E-2</v>
+          </cell>
+          <cell r="B180">
+            <v>-8.2393341716309205E-6</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>2.7615596651850559E-2</v>
+          </cell>
+          <cell r="B181">
+            <v>5.3250707053861071E-5</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>2.8708031425054299E-2</v>
+          </cell>
+          <cell r="B182">
+            <v>-3.7717958152457692E-4</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>2.8260637509194251E-2</v>
+          </cell>
+          <cell r="B183">
+            <v>-2.5419949907359483E-4</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>2.7790172356916609E-2</v>
+          </cell>
+          <cell r="B184">
+            <v>-6.9729375397121275E-5</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>2.7554938779152209E-2</v>
+          </cell>
+          <cell r="B185">
+            <v>1.7623078950484319E-4</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>2.7570947898937812E-2</v>
+          </cell>
+          <cell r="B186">
+            <v>1.1474074827935189E-4</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>2.807654100296407E-2</v>
+          </cell>
+          <cell r="B187">
+            <v>-1.9270945784810359E-4</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>2.7919566085897671E-2</v>
+          </cell>
+          <cell r="B188">
+            <v>-1.312194166226127E-4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>2.8226595885541921E-2</v>
+          </cell>
+          <cell r="B189">
+            <v>2.0551853572808399E-5</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>2.8474012230602259E-2</v>
+          </cell>
+          <cell r="B190">
+            <v>-1.0242822887817331E-4</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>2.8144246781131921E-2</v>
+          </cell>
+          <cell r="B191">
+            <v>8.2041894798300081E-5</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>2.833662466072432E-2</v>
+          </cell>
+          <cell r="B192">
+            <v>-4.0938187652682273E-5</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>2.8063480369802621E-2</v>
+          </cell>
+          <cell r="B193">
+            <v>2.0502197724928239E-4</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>2.8638364850718061E-2</v>
+          </cell>
+          <cell r="B194">
+            <v>-1.6391827010366471E-4</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>2.808982078863188E-2</v>
+          </cell>
+          <cell r="B195">
+            <v>1.4353193602379091E-4</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>2.9046059274150701E-2</v>
+          </cell>
+          <cell r="B196">
+            <v>-2.8689835255464721E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>2.8829221349281009E-2</v>
+          </cell>
+          <cell r="B197">
+            <v>-2.2540831132915521E-4</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>2.8625191267383499E-2</v>
+          </cell>
+          <cell r="B198">
+            <v>2.3381316499372119E-4</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>2.8816195334530351E-2</v>
+          </cell>
+          <cell r="B199">
+            <v>4.9343041317247907E-5</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>2.8725153447829121E-2</v>
+          </cell>
+          <cell r="B200">
+            <v>1.108330825427396E-4</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>2.893429245692606E-2</v>
+          </cell>
+          <cell r="B201">
+            <v>-1.2146999908242639E-5</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>2.9250266549880971E-2</v>
+          </cell>
+          <cell r="B202">
+            <v>-1.351270823592252E-4</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>2.866142461765446E-2</v>
+          </cell>
+          <cell r="B203">
+            <v>1.7232312376823039E-4</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>2.907911518386842E-2</v>
+          </cell>
+          <cell r="B204">
+            <v>-7.3637041133734195E-5</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>2.9447287482383219E-2</v>
+          </cell>
+          <cell r="B205">
+            <v>-1.9661712358471609E-4</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>2.9909172680631729E-2</v>
+          </cell>
+          <cell r="B206">
+            <v>-1.0633589461478629E-4</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>2.9282671592155699E-2</v>
+          </cell>
+          <cell r="B207">
+            <v>2.0111431151266959E-4</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>2.9237007114388439E-2</v>
+          </cell>
+          <cell r="B208">
+            <v>2.6260435273816051E-4</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>2.9355214521613091E-2</v>
+          </cell>
+          <cell r="B209">
+            <v>1.3962427028717871E-4</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>2.9731782195647261E-2</v>
+          </cell>
+          <cell r="B210">
+            <v>-4.4845853389294928E-5</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>2.9454437307720641E-2</v>
+          </cell>
+          <cell r="B211">
+            <v>7.8134229061687039E-5</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>2.958007146860208E-2</v>
+          </cell>
+          <cell r="B212">
+            <v>1.6644187836196621E-5</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>2.9895851889582149E-2</v>
+          </cell>
+          <cell r="B213">
+            <v>2.9139554048259988E-4</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>3.0031336365587191E-2</v>
+          </cell>
+          <cell r="B214">
+            <v>1.6841545803161819E-4</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>3.042895283223937E-2</v>
+          </cell>
+          <cell r="B215">
+            <v>-1.6054665644855739E-5</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>3.013823163285469E-2</v>
+          </cell>
+          <cell r="B216">
+            <v>1.069254168061261E-4</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>3.027088273368991E-2</v>
+          </cell>
+          <cell r="B217">
+            <v>4.5435375580635502E-5</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>2.995047270610459E-2</v>
+          </cell>
+          <cell r="B218">
+            <v>2.2990549925710839E-4</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>3.0864550864726371E-2</v>
+          </cell>
+          <cell r="B219">
+            <v>1.3571660455056529E-4</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>3.1003716231292749E-2</v>
+          </cell>
+          <cell r="B220">
+            <v>7.4226563325074634E-5</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>3.0661786320250659E-2</v>
+          </cell>
+          <cell r="B221">
+            <v>2.5869668700154793E-4</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>3.0598687891564641E-2</v>
+          </cell>
+          <cell r="B222">
+            <v>3.2018672822703941E-4</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>3.0750480865844618E-2</v>
+          </cell>
+          <cell r="B223">
+            <v>1.972066457760571E-4</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>3.1342555837893277E-2</v>
+          </cell>
+          <cell r="B224">
+            <v>3.489779159714784E-4</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>3.1413656754074738E-2</v>
+          </cell>
+          <cell r="B225">
+            <v>2.8748787474598692E-4</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>3.1509702447703833E-2</v>
+          </cell>
+          <cell r="B226">
+            <v>2.2599783352049611E-4</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>3.1630465685656278E-2</v>
+          </cell>
+          <cell r="B227">
+            <v>1.6450779229500471E-4</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>3.2306175702015702E-2</v>
+          </cell>
+          <cell r="B228">
+            <v>2.5478902126493518E-4</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>3.2203243412138788E-2</v>
+          </cell>
+          <cell r="B229">
+            <v>3.1627906249042639E-4</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>3.2124605483990799E-2</v>
+          </cell>
+          <cell r="B230">
+            <v>3.7776910371591728E-4</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>3.2942117628306247E-2</v>
+          </cell>
+          <cell r="B231">
+            <v>4.0656029146035638E-4</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
+            <v>3.3027841393960589E-2</v>
+          </cell>
+          <cell r="B232">
+            <v>3.4507025023486527E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>3.3792518631448588E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>4.3535147920479591E-4</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Hang Seng : 100%</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>S&amp;P 500 : 100%</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>CAC40 : 100%</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.557685611329244E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-2.385688361271439E-4</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>CAC40 : 15%
+S&amp;P 500 : 70%
+Hang Seng : 15%</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2">
+            <v>2.9493816030783111E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>-1.37027310019381E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2.5946509483569351E-2</v>
+          </cell>
+          <cell r="B3">
+            <v>-2.6345235813497048E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.589796185441803E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>-3.2494239936046131E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2.587989558544369E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-3.8643244058595197E-4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2.589237448135424E-2</v>
+          </cell>
+          <cell r="B6">
+            <v>-4.4792248181144362E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2.907777022501672E-2</v>
+          </cell>
+          <cell r="B7">
+            <v>-1.3087830589683189E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2.5935354451415159E-2</v>
+          </cell>
+          <cell r="B8">
+            <v>-5.0941252303693526E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2.6008684284812171E-2</v>
+          </cell>
+          <cell r="B9">
+            <v>-5.7090256426242604E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2.611210829102412E-2</v>
+          </cell>
+          <cell r="B10">
+            <v>-6.3239260548791682E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.6245270698660079E-2</v>
+          </cell>
+          <cell r="B11">
+            <v>-6.9388264671340792E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2.6134262704790408E-2</v>
+          </cell>
+          <cell r="B12">
+            <v>-1.40472275683988E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.6407721638913861E-2</v>
+          </cell>
+          <cell r="B13">
+            <v>-7.5537268793889913E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2.6598924484636841E-2</v>
+          </cell>
+          <cell r="B14">
+            <v>-8.1686272916439056E-4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2.602536789399252E-2</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.019623169094794E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2.8683266061045039E-2</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.2472930177428281E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2.7065056942623261E-2</v>
+          </cell>
+          <cell r="B17">
+            <v>-9.3984281161537287E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2.7338559020080269E-2</v>
+          </cell>
+          <cell r="B18">
+            <v>-1.0013328528408641E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2.831120407307269E-2</v>
+          </cell>
+          <cell r="B19">
+            <v>-1.185802976517337E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2.7637977580677361E-2</v>
+          </cell>
+          <cell r="B20">
+            <v>-1.062822894066355E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2.6818264276218671E-2</v>
+          </cell>
+          <cell r="B21">
+            <v>-8.7835277038988187E-4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2.796248010592544E-2</v>
+          </cell>
+          <cell r="B22">
+            <v>-1.1243129352918461E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hang Seng"/>
       <sheetName val="Hang Seng_extremes"/>
@@ -5604,169 +7695,6 @@
           <cell r="A2">
             <v>2.9493816030783111E-2</v>
           </cell>
-          <cell r="B2">
-            <v>-1.37027310019381E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2.5946509483569351E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>-2.6345235813497048E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2.589796185441803E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>-3.2494239936046131E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2.587989558544369E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>-3.8643244058595197E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2.589237448135424E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>-4.4792248181144362E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2.907777022501672E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>-1.3087830589683189E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2.5935354451415159E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>-5.0941252303693526E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2.6008684284812171E-2</v>
-          </cell>
-          <cell r="B9">
-            <v>-5.7090256426242604E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2.611210829102412E-2</v>
-          </cell>
-          <cell r="B10">
-            <v>-6.3239260548791682E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2.6245270698660079E-2</v>
-          </cell>
-          <cell r="B11">
-            <v>-6.9388264671340792E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2.6134262704790408E-2</v>
-          </cell>
-          <cell r="B12">
-            <v>-1.40472275683988E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2.6407721638913861E-2</v>
-          </cell>
-          <cell r="B13">
-            <v>-7.5537268793889913E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2.6598924484636841E-2</v>
-          </cell>
-          <cell r="B14">
-            <v>-8.1686272916439056E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2.602536789399252E-2</v>
-          </cell>
-          <cell r="B15">
-            <v>-2.019623169094794E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2.8683266061045039E-2</v>
-          </cell>
-          <cell r="B16">
-            <v>-1.2472930177428281E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2.7065056942623261E-2</v>
-          </cell>
-          <cell r="B17">
-            <v>-9.3984281161537287E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2.7338559020080269E-2</v>
-          </cell>
-          <cell r="B18">
-            <v>-1.0013328528408641E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.831120407307269E-2</v>
-          </cell>
-          <cell r="B19">
-            <v>-1.185802976517337E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2.7637977580677361E-2</v>
-          </cell>
-          <cell r="B20">
-            <v>-1.062822894066355E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2.6818264276218671E-2</v>
-          </cell>
-          <cell r="B21">
-            <v>-8.7835277038988187E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2.796248010592544E-2</v>
-          </cell>
-          <cell r="B22">
-            <v>-1.1243129352918461E-3</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="A23">
@@ -7494,3168 +9422,6 @@
             <v>CAC40 : 5%
 S&amp;P 500 : 65%
 Taiwan : 30%</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Hang Seng"/>
-      <sheetName val="Hang Seng_extremes"/>
-      <sheetName val="Sao Paolo"/>
-      <sheetName val="Sao Paolo_extremes"/>
-      <sheetName val="Taiwan"/>
-      <sheetName val="Taiwan_extremes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>2.9493816030783111E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>-1.37027310019381E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2.5946509483569351E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>-2.6345235813497048E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2.589796185441803E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>-3.2494239936046131E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2.587989558544369E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>-3.8643244058595197E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2.589237448135424E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>-4.4792248181144362E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2.907777022501672E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>-1.3087830589683189E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2.5935354451415159E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>-5.0941252303693526E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2.6008684284812171E-2</v>
-          </cell>
-          <cell r="B9">
-            <v>-5.7090256426242604E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2.611210829102412E-2</v>
-          </cell>
-          <cell r="B10">
-            <v>-6.3239260548791682E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2.6245270698660079E-2</v>
-          </cell>
-          <cell r="B11">
-            <v>-6.9388264671340792E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2.6134262704790408E-2</v>
-          </cell>
-          <cell r="B12">
-            <v>-1.40472275683988E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2.6407721638913861E-2</v>
-          </cell>
-          <cell r="B13">
-            <v>-7.5537268793889913E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2.6598924484636841E-2</v>
-          </cell>
-          <cell r="B14">
-            <v>-8.1686272916439056E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2.602536789399252E-2</v>
-          </cell>
-          <cell r="B15">
-            <v>-2.019623169094794E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2.8683266061045039E-2</v>
-          </cell>
-          <cell r="B16">
-            <v>-1.2472930177428281E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2.7065056942623261E-2</v>
-          </cell>
-          <cell r="B17">
-            <v>-9.3984281161537287E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2.7338559020080269E-2</v>
-          </cell>
-          <cell r="B18">
-            <v>-1.0013328528408641E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.831120407307269E-2</v>
-          </cell>
-          <cell r="B19">
-            <v>-1.185802976517337E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2.7637977580677361E-2</v>
-          </cell>
-          <cell r="B20">
-            <v>-1.062822894066355E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2.6818264276218671E-2</v>
-          </cell>
-          <cell r="B21">
-            <v>-8.7835277038988187E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2.796248010592544E-2</v>
-          </cell>
-          <cell r="B22">
-            <v>-1.1243129352918461E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2.674659259894838E-2</v>
-          </cell>
-          <cell r="B23">
-            <v>-8.2077039490100259E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2.5640799135072469E-2</v>
-          </cell>
-          <cell r="B24">
-            <v>-2.0586998264609171E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2.5614972637368821E-2</v>
-          </cell>
-          <cell r="B25">
-            <v>-2.6736002387158349E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2.8741080066173801E-2</v>
-          </cell>
-          <cell r="B26">
-            <v>-1.18971064225395E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2.562000311494543E-2</v>
-          </cell>
-          <cell r="B27">
-            <v>-3.2885006509707421E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2.5655872416955799E-2</v>
-          </cell>
-          <cell r="B28">
-            <v>-3.9034010632256548E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2.8348739626526578E-2</v>
-          </cell>
-          <cell r="B29">
-            <v>-1.128220601028458E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2.581950289241897E-2</v>
-          </cell>
-          <cell r="B30">
-            <v>-5.1332018877354752E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2.7979168803301209E-2</v>
-          </cell>
-          <cell r="B31">
-            <v>-1.066730559802968E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2.594668456436872E-2</v>
-          </cell>
-          <cell r="B32">
-            <v>-5.7481022999903927E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2.7633281182358499E-2</v>
-          </cell>
-          <cell r="B33">
-            <v>-1.005240518577476E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2.6103556148975339E-2</v>
-          </cell>
-          <cell r="B34">
-            <v>-6.3630027122453016E-4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2.7311976573503292E-2</v>
-          </cell>
-          <cell r="B35">
-            <v>-9.4375047735198556E-4</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2.5697389572206589E-2</v>
-          </cell>
-          <cell r="B36">
-            <v>-1.4437994142060091E-4</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2.5784541392761099E-2</v>
-          </cell>
-          <cell r="B37">
-            <v>-8.288990019510952E-5</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2.650416064523348E-2</v>
-          </cell>
-          <cell r="B38">
-            <v>-7.5928035367551193E-4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2.7016132093039089E-2</v>
-          </cell>
-          <cell r="B39">
-            <v>-8.8226043612649446E-4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2.572245153186322E-2</v>
-          </cell>
-          <cell r="B40">
-            <v>-4.5183014754805658E-4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2.6289586166982661E-2</v>
-          </cell>
-          <cell r="B41">
-            <v>-6.9779031245002104E-4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>3.3792518631448588E-2</v>
-          </cell>
-          <cell r="B42">
-            <v>4.3535147920479591E-4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2.5827927002194939E-2</v>
-          </cell>
-          <cell r="B43">
-            <v>-4.8452900102910782E-4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.633186620986841E-2</v>
-          </cell>
-          <cell r="B44">
-            <v>-6.6899912470558178E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2.772735091758138E-2</v>
-          </cell>
-          <cell r="B45">
-            <v>-9.7644933083303718E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2.557685611329244E-2</v>
-          </cell>
-          <cell r="B46">
-            <v>-2.385688361271439E-4</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2.5636134793618561E-2</v>
-          </cell>
-          <cell r="B47">
-            <v>-1.155887536761618E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2.5591067605006301E-2</v>
-          </cell>
-          <cell r="B48">
-            <v>-1.7707879490165229E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2.5711895430282791E-2</v>
-          </cell>
-          <cell r="B49">
-            <v>-5.4098712450670639E-5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2.6810412567012231E-2</v>
-          </cell>
-          <cell r="B50">
-            <v>-7.9197920715656366E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2.5966557493244471E-2</v>
-          </cell>
-          <cell r="B51">
-            <v>-5.4601904225459969E-4</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>2.7090330086137111E-2</v>
-          </cell>
-          <cell r="B52">
-            <v>-8.534692483820552E-4</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>2.739626324532168E-2</v>
-          </cell>
-          <cell r="B53">
-            <v>-9.1495928960754608E-4</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>2.5641094048384688E-2</v>
-          </cell>
-          <cell r="B54">
-            <v>-3.61548918578126E-4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2.571931204134531E-2</v>
-          </cell>
-          <cell r="B55">
-            <v>-4.2303895980361699E-4</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>2.8082703421769741E-2</v>
-          </cell>
-          <cell r="B56">
-            <v>-1.037939372058529E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2.846141190299762E-2</v>
-          </cell>
-          <cell r="B57">
-            <v>-1.0994294132840191E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>2.6134725870723619E-2</v>
-          </cell>
-          <cell r="B58">
-            <v>-6.0750908348009025E-4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>2.5593551718836659E-2</v>
-          </cell>
-          <cell r="B59">
-            <v>-3.0005887735263512E-4</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>2.655733332470693E-2</v>
-          </cell>
-          <cell r="B60">
-            <v>-7.3048916593107267E-4</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>2.5708343464430069E-2</v>
-          </cell>
-          <cell r="B61">
-            <v>-2.530752470623145E-5</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>2.5636567337384331E-2</v>
-          </cell>
-          <cell r="B62">
-            <v>-2.7126768960819569E-4</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>2.578526471137434E-2</v>
-          </cell>
-          <cell r="B63">
-            <v>-3.9424777205917822E-4</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>2.560825412540842E-2</v>
-          </cell>
-          <cell r="B64">
-            <v>-2.0977764838270429E-4</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>2.6054791142928239E-2</v>
-          </cell>
-          <cell r="B65">
-            <v>-5.1722785451016032E-4</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>2.7229743670620841E-2</v>
-          </cell>
-          <cell r="B66">
-            <v>-8.2467806063761637E-4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>2.5905120384478231E-2</v>
-          </cell>
-          <cell r="B67">
-            <v>-4.5573781328466878E-4</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>2.66771763951014E-2</v>
-          </cell>
-          <cell r="B68">
-            <v>-7.0169797818663362E-4</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>2.694020403889353E-2</v>
-          </cell>
-          <cell r="B69">
-            <v>-7.6318801941212451E-4</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>2.6233766682227572E-2</v>
-          </cell>
-          <cell r="B70">
-            <v>-5.7871789573565142E-4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>2.8248910444671191E-2</v>
-          </cell>
-          <cell r="B71">
-            <v>-1.009148184314089E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>2.7884980082378288E-2</v>
-          </cell>
-          <cell r="B72">
-            <v>-9.4765814308859803E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>2.5644206924214461E-2</v>
-          </cell>
-          <cell r="B73">
-            <v>-8.6797565931722305E-5</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>2.6441451938994089E-2</v>
-          </cell>
-          <cell r="B74">
-            <v>-6.4020793696114252E-4</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>2.561080372279232E-2</v>
-          </cell>
-          <cell r="B75">
-            <v>-1.4828760715721349E-4</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>2.75449592583989E-2</v>
-          </cell>
-          <cell r="B76">
-            <v>-8.8616810186310704E-4</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>2.5695641338671131E-2</v>
-          </cell>
-          <cell r="B77">
-            <v>-3.3275773083368701E-4</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>2.6862797560858059E-2</v>
-          </cell>
-          <cell r="B78">
-            <v>-6.729067904421948E-4</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>2.5773914061254479E-2</v>
-          </cell>
-          <cell r="B79">
-            <v>3.4836630382078739E-6</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>2.5748701819475011E-2</v>
-          </cell>
-          <cell r="B80">
-            <v>-2.4247650186375619E-4</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>2.6399914727547061E-2</v>
-          </cell>
-          <cell r="B81">
-            <v>-5.4992670799121194E-4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>2.6050471710171191E-2</v>
-          </cell>
-          <cell r="B82">
-            <v>-4.2694662554022979E-4</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>2.7433378607894542E-2</v>
-          </cell>
-          <cell r="B83">
-            <v>-7.9588687289317646E-4</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>2.569984744653759E-2</v>
-          </cell>
-          <cell r="B84">
-            <v>-1.1949641941277411E-4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>2.5819074903986401E-2</v>
-          </cell>
-          <cell r="B85">
-            <v>-3.0396654308924759E-4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>2.591978213403278E-2</v>
-          </cell>
-          <cell r="B86">
-            <v>-3.6545658431473891E-4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>2.7135020371938989E-2</v>
-          </cell>
-          <cell r="B87">
-            <v>-7.3439683166768568E-4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>2.5721540693974729E-2</v>
-          </cell>
-          <cell r="B88">
-            <v>-5.8006378187283241E-5</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>2.570891198295739E-2</v>
-          </cell>
-          <cell r="B89">
-            <v>-1.8098646063826549E-4</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>2.6210695149838609E-2</v>
-          </cell>
-          <cell r="B90">
-            <v>-4.8843666676572116E-4</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>2.8105099266273512E-2</v>
-          </cell>
-          <cell r="B91">
-            <v>-9.1886695534415877E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>2.6617512063947291E-2</v>
-          </cell>
-          <cell r="B92">
-            <v>-6.1141674921670315E-4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>2.7757029498331889E-2</v>
-          </cell>
-          <cell r="B93">
-            <v>-8.5737691411866778E-4</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>2.5908082400542098E-2</v>
-          </cell>
-          <cell r="B94">
-            <v>3.2274850782647257E-5</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>2.6121805083116359E-2</v>
-          </cell>
-          <cell r="B95">
-            <v>-3.3666539657029959E-4</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>2.6010414054263291E-2</v>
-          </cell>
-          <cell r="B96">
-            <v>-2.7517535534480892E-4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>2.7393474273965188E-2</v>
-          </cell>
-          <cell r="B97">
-            <v>-7.056056439232462E-4</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>2.711284585690792E-2</v>
-          </cell>
-          <cell r="B98">
-            <v>-6.4411560269775554E-4</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>2.6858739389463988E-2</v>
-          </cell>
-          <cell r="B99">
-            <v>-5.82625561472264E-4</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>2.6631914054203461E-2</v>
-          </cell>
-          <cell r="B100">
-            <v>-5.2113552024677279E-4</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>2.5857482775934242E-2</v>
-          </cell>
-          <cell r="B101">
-            <v>-9.0705231668335157E-5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>2.769981856628264E-2</v>
-          </cell>
-          <cell r="B102">
-            <v>-7.6709568514873774E-4</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>2.5878021497555088E-2</v>
-          </cell>
-          <cell r="B103">
-            <v>-1.521952728938262E-4</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>2.6433072168373751E-2</v>
-          </cell>
-          <cell r="B104">
-            <v>-4.5964547902128212E-4</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>2.8031035619116879E-2</v>
-          </cell>
-          <cell r="B105">
-            <v>-8.2858572637422841E-4</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>2.6262849346464091E-2</v>
-          </cell>
-          <cell r="B106">
-            <v>-3.9815543779579048E-4</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>2.5929058432900151E-2</v>
-          </cell>
-          <cell r="B107">
-            <v>-2.1368531411931709E-4</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>2.5867514914583271E-2</v>
-          </cell>
-          <cell r="B108">
-            <v>-2.921519044284436E-5</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>2.7425559126657319E-2</v>
-          </cell>
-          <cell r="B109">
-            <v>-6.1532441495331606E-4</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>2.692806268641924E-2</v>
-          </cell>
-          <cell r="B110">
-            <v>-4.9234433250233407E-4</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>2.6540644313057471E-2</v>
-          </cell>
-          <cell r="B111">
-            <v>-3.693642500513517E-4</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>2.6389783269467039E-2</v>
-          </cell>
-          <cell r="B112">
-            <v>-3.0787420882586028E-4</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>2.7163397799105149E-2</v>
-          </cell>
-          <cell r="B113">
-            <v>-5.5383437372782506E-4</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>2.6720262602819931E-2</v>
-          </cell>
-          <cell r="B114">
-            <v>-4.3085429127684308E-4</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>2.6268174944888999E-2</v>
-          </cell>
-          <cell r="B115">
-            <v>-2.4638416760036918E-4</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>2.8027272444003309E-2</v>
-          </cell>
-          <cell r="B116">
-            <v>-7.3830449740429859E-4</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>2.61762270453514E-2</v>
-          </cell>
-          <cell r="B117">
-            <v>-1.848941263748787E-4</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>2.6080977077653701E-2</v>
-          </cell>
-          <cell r="B118">
-            <v>-4.2400269840503642E-7</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>2.611425287449206E-2</v>
-          </cell>
-          <cell r="B119">
-            <v>-1.2340408514938719E-4</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>2.608246609361714E-2</v>
-          </cell>
-          <cell r="B120">
-            <v>-6.1914043923895585E-5</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>2.771378538373569E-2</v>
-          </cell>
-          <cell r="B121">
-            <v>-6.7681445617880738E-4</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>2.6109791010158388E-2</v>
-          </cell>
-          <cell r="B122">
-            <v>6.1066038527086389E-5</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>2.6377490494729341E-2</v>
-          </cell>
-          <cell r="B123">
-            <v>8.9857226271525717E-5</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>2.6488337409647698E-2</v>
-          </cell>
-          <cell r="B124">
-            <v>-1.561029386304387E-4</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>2.6881828631882751E-2</v>
-          </cell>
-          <cell r="B125">
-            <v>-3.4057306230691179E-4</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>2.7070203696192979E-2</v>
-          </cell>
-          <cell r="B126">
-            <v>-4.0206310353240349E-4</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>2.6360287708568901E-2</v>
-          </cell>
-          <cell r="B127">
-            <v>2.8367185046034791E-5</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>2.8093837991233089E-2</v>
-          </cell>
-          <cell r="B128">
-            <v>-6.4802326843436779E-4</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>2.6590426019168851E-2</v>
-          </cell>
-          <cell r="B129">
-            <v>-2.1759297985593021E-4</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>2.7529381461962359E-2</v>
-          </cell>
-          <cell r="B130">
-            <v>-5.250431859833858E-4</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>2.7286271991268589E-2</v>
-          </cell>
-          <cell r="B131">
-            <v>-4.6355314475789432E-4</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>2.672173247570377E-2</v>
-          </cell>
-          <cell r="B132">
-            <v>-2.7908302108142118E-4</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>2.63730738600217E-2</v>
-          </cell>
-          <cell r="B133">
-            <v>-3.3122856179456202E-5</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>2.6415805402115439E-2</v>
-          </cell>
-          <cell r="B134">
-            <v>-9.4612897404948009E-5</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>2.779882266650199E-2</v>
-          </cell>
-          <cell r="B135">
-            <v>-5.8653322720887701E-4</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>2.6780472590610969E-2</v>
-          </cell>
-          <cell r="B136">
-            <v>-6.5821709660508491E-5</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>2.7704134774502051E-2</v>
-          </cell>
-          <cell r="B137">
-            <v>-4.3476195701345501E-4</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>2.7480498322039641E-2</v>
-          </cell>
-          <cell r="B138">
-            <v>-3.7327191578796418E-4</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>2.6709196698692501E-2</v>
-          </cell>
-          <cell r="B139">
-            <v>1.1864841401596471E-4</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>2.672716553269637E-2</v>
-          </cell>
-          <cell r="B140">
-            <v>-4.3316684350175077E-6</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>2.8230234769870289E-2</v>
-          </cell>
-          <cell r="B141">
-            <v>-5.5774203946443775E-4</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>2.795428183031293E-2</v>
-          </cell>
-          <cell r="B142">
-            <v>-4.9625199823894665E-4</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>2.6863126035690969E-2</v>
-          </cell>
-          <cell r="B143">
-            <v>-1.2731175088599969E-4</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>2.728402437178417E-2</v>
-          </cell>
-          <cell r="B144">
-            <v>-3.117818745624727E-4</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>2.711530337800486E-2</v>
-          </cell>
-          <cell r="B145">
-            <v>-2.5029183333698208E-4</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>2.6703380612133731E-2</v>
-          </cell>
-          <cell r="B146">
-            <v>5.7158372790473787E-5</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>2.6974856109180819E-2</v>
-          </cell>
-          <cell r="B147">
-            <v>-1.8880179211149101E-4</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>2.9085977530167478E-2</v>
-          </cell>
-          <cell r="B148">
-            <v>-1.27999187122388E-3</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>2.6140500304930401E-2</v>
-          </cell>
-          <cell r="B149">
-            <v>-6.6509145896896887E-4</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>2.8681187824202741E-2</v>
-          </cell>
-          <cell r="B150">
-            <v>-1.2185018299983889E-3</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>2.8298559585208969E-2</v>
-          </cell>
-          <cell r="B151">
-            <v>-1.157011788772898E-3</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>2.7939003340432339E-2</v>
-          </cell>
-          <cell r="B152">
-            <v>-1.0955217475474069E-3</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>2.760342069715991E-2</v>
-          </cell>
-          <cell r="B153">
-            <v>-1.034031706321916E-3</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>2.5739857036056722E-2</v>
-          </cell>
-          <cell r="B154">
-            <v>-4.1913129406700458E-4</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>2.6749216335798569E-2</v>
-          </cell>
-          <cell r="B155">
-            <v>-8.495615826454424E-4</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>2.7007687195421379E-2</v>
-          </cell>
-          <cell r="B156">
-            <v>-9.1105162387093339E-4</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>2.7292695985936279E-2</v>
-          </cell>
-          <cell r="B157">
-            <v>-9.7254166509642438E-4</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>2.5995329138140379E-2</v>
-          </cell>
-          <cell r="B158">
-            <v>-6.0360141774347766E-4</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>2.592570053704903E-2</v>
-          </cell>
-          <cell r="B159">
-            <v>-1.116810879395489E-4</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>2.6518059412061399E-2</v>
-          </cell>
-          <cell r="B160">
-            <v>-7.8807154141995119E-4</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>2.5794657955137461E-2</v>
-          </cell>
-          <cell r="B161">
-            <v>-4.8062133529249579E-4</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>2.571570716350963E-2</v>
-          </cell>
-          <cell r="B162">
-            <v>-3.5764125284151347E-4</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>2.5722294669620019E-2</v>
-          </cell>
-          <cell r="B163">
-            <v>-2.9615121161602232E-4</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>2.6314936231207599E-2</v>
-          </cell>
-          <cell r="B164">
-            <v>-7.265815001944603E-4</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>2.5827477998818311E-2</v>
-          </cell>
-          <cell r="B165">
-            <v>-1.7317112916504E-4</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>2.5879915210005489E-2</v>
-          </cell>
-          <cell r="B166">
-            <v>-5.4211137651798667E-4</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>2.5759595972972539E-2</v>
-          </cell>
-          <cell r="B167">
-            <v>-2.34661170390531E-4</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>2.7102559603548081E-2</v>
-          </cell>
-          <cell r="B168">
-            <v>1.474396017604039E-4</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>2.75678568870328E-2</v>
-          </cell>
-          <cell r="B169">
-            <v>-2.2150064559254331E-4</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>2.7107834097156329E-2</v>
-          </cell>
-          <cell r="B170">
-            <v>8.5949560534912933E-5</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>2.729801141797723E-2</v>
-          </cell>
-          <cell r="B171">
-            <v>-9.8520563141560414E-5</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>2.8435457916189968E-2</v>
-          </cell>
-          <cell r="B172">
-            <v>-4.6746081049450728E-4</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>2.7744578326780071E-2</v>
-          </cell>
-          <cell r="B173">
-            <v>-2.8299068681803381E-4</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>2.741884996905684E-2</v>
-          </cell>
-          <cell r="B174">
-            <v>-1.600106043670518E-4</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>2.7205716579333489E-2</v>
-          </cell>
-          <cell r="B175">
-            <v>-3.7030521916069488E-5</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>2.714225663578226E-2</v>
-          </cell>
-          <cell r="B176">
-            <v>2.445951930942181E-5</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>2.8178997379441649E-2</v>
-          </cell>
-          <cell r="B177">
-            <v>-4.0597076926901602E-4</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>2.7948488567119099E-2</v>
-          </cell>
-          <cell r="B178">
-            <v>-3.444807280435254E-4</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>2.8471329502319901E-2</v>
-          </cell>
-          <cell r="B179">
-            <v>-3.1568954029908598E-4</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>2.768874649199736E-2</v>
-          </cell>
-          <cell r="B180">
-            <v>-8.2393341716309205E-6</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>2.7615596651850559E-2</v>
-          </cell>
-          <cell r="B181">
-            <v>5.3250707053861071E-5</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>2.8708031425054299E-2</v>
-          </cell>
-          <cell r="B182">
-            <v>-3.7717958152457692E-4</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>2.8260637509194251E-2</v>
-          </cell>
-          <cell r="B183">
-            <v>-2.5419949907359483E-4</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>2.7790172356916609E-2</v>
-          </cell>
-          <cell r="B184">
-            <v>-6.9729375397121275E-5</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>2.7554938779152209E-2</v>
-          </cell>
-          <cell r="B185">
-            <v>1.7623078950484319E-4</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>2.7570947898937812E-2</v>
-          </cell>
-          <cell r="B186">
-            <v>1.1474074827935189E-4</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>2.807654100296407E-2</v>
-          </cell>
-          <cell r="B187">
-            <v>-1.9270945784810359E-4</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>2.7919566085897671E-2</v>
-          </cell>
-          <cell r="B188">
-            <v>-1.312194166226127E-4</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>2.8226595885541921E-2</v>
-          </cell>
-          <cell r="B189">
-            <v>2.0551853572808399E-5</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>2.8474012230602259E-2</v>
-          </cell>
-          <cell r="B190">
-            <v>-1.0242822887817331E-4</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>2.8144246781131921E-2</v>
-          </cell>
-          <cell r="B191">
-            <v>8.2041894798300081E-5</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>2.833662466072432E-2</v>
-          </cell>
-          <cell r="B192">
-            <v>-4.0938187652682273E-5</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>2.8063480369802621E-2</v>
-          </cell>
-          <cell r="B193">
-            <v>2.0502197724928239E-4</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>2.8638364850718061E-2</v>
-          </cell>
-          <cell r="B194">
-            <v>-1.6391827010366471E-4</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>2.808982078863188E-2</v>
-          </cell>
-          <cell r="B195">
-            <v>1.4353193602379091E-4</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>2.9046059274150701E-2</v>
-          </cell>
-          <cell r="B196">
-            <v>-2.8689835255464721E-4</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>2.8829221349281009E-2</v>
-          </cell>
-          <cell r="B197">
-            <v>-2.2540831132915521E-4</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>2.8625191267383499E-2</v>
-          </cell>
-          <cell r="B198">
-            <v>2.3381316499372119E-4</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>2.8816195334530351E-2</v>
-          </cell>
-          <cell r="B199">
-            <v>4.9343041317247907E-5</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>2.8725153447829121E-2</v>
-          </cell>
-          <cell r="B200">
-            <v>1.108330825427396E-4</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>2.893429245692606E-2</v>
-          </cell>
-          <cell r="B201">
-            <v>-1.2146999908242639E-5</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>2.9250266549880971E-2</v>
-          </cell>
-          <cell r="B202">
-            <v>-1.351270823592252E-4</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>2.866142461765446E-2</v>
-          </cell>
-          <cell r="B203">
-            <v>1.7232312376823039E-4</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>2.907911518386842E-2</v>
-          </cell>
-          <cell r="B204">
-            <v>-7.3637041133734195E-5</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>2.9447287482383219E-2</v>
-          </cell>
-          <cell r="B205">
-            <v>-1.9661712358471609E-4</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>2.9909172680631729E-2</v>
-          </cell>
-          <cell r="B206">
-            <v>-1.0633589461478629E-4</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>2.9282671592155699E-2</v>
-          </cell>
-          <cell r="B207">
-            <v>2.0111431151266959E-4</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>2.9237007114388439E-2</v>
-          </cell>
-          <cell r="B208">
-            <v>2.6260435273816051E-4</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>2.9355214521613091E-2</v>
-          </cell>
-          <cell r="B209">
-            <v>1.3962427028717871E-4</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>2.9731782195647261E-2</v>
-          </cell>
-          <cell r="B210">
-            <v>-4.4845853389294928E-5</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>2.9454437307720641E-2</v>
-          </cell>
-          <cell r="B211">
-            <v>7.8134229061687039E-5</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>2.958007146860208E-2</v>
-          </cell>
-          <cell r="B212">
-            <v>1.6644187836196621E-5</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>2.9895851889582149E-2</v>
-          </cell>
-          <cell r="B213">
-            <v>2.9139554048259988E-4</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>3.0031336365587191E-2</v>
-          </cell>
-          <cell r="B214">
-            <v>1.6841545803161819E-4</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>3.042895283223937E-2</v>
-          </cell>
-          <cell r="B215">
-            <v>-1.6054665644855739E-5</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>3.013823163285469E-2</v>
-          </cell>
-          <cell r="B216">
-            <v>1.069254168061261E-4</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>3.027088273368991E-2</v>
-          </cell>
-          <cell r="B217">
-            <v>4.5435375580635502E-5</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>2.995047270610459E-2</v>
-          </cell>
-          <cell r="B218">
-            <v>2.2990549925710839E-4</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>3.0864550864726371E-2</v>
-          </cell>
-          <cell r="B219">
-            <v>1.3571660455056529E-4</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>3.1003716231292749E-2</v>
-          </cell>
-          <cell r="B220">
-            <v>7.4226563325074634E-5</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>3.0661786320250659E-2</v>
-          </cell>
-          <cell r="B221">
-            <v>2.5869668700154793E-4</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>3.0598687891564641E-2</v>
-          </cell>
-          <cell r="B222">
-            <v>3.2018672822703941E-4</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>3.0750480865844618E-2</v>
-          </cell>
-          <cell r="B223">
-            <v>1.972066457760571E-4</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>3.1342555837893277E-2</v>
-          </cell>
-          <cell r="B224">
-            <v>3.489779159714784E-4</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>3.1413656754074738E-2</v>
-          </cell>
-          <cell r="B225">
-            <v>2.8748787474598692E-4</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>3.1509702447703833E-2</v>
-          </cell>
-          <cell r="B226">
-            <v>2.2599783352049611E-4</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>3.1630465685656278E-2</v>
-          </cell>
-          <cell r="B227">
-            <v>1.6450779229500471E-4</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>3.2306175702015702E-2</v>
-          </cell>
-          <cell r="B228">
-            <v>2.5478902126493518E-4</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>3.2203243412138788E-2</v>
-          </cell>
-          <cell r="B229">
-            <v>3.1627906249042639E-4</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>3.2124605483990799E-2</v>
-          </cell>
-          <cell r="B230">
-            <v>3.7776910371591728E-4</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>3.2942117628306247E-2</v>
-          </cell>
-          <cell r="B231">
-            <v>4.0656029146035638E-4</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>3.3027841393960589E-2</v>
-          </cell>
-          <cell r="B232">
-            <v>3.4507025023486527E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>3.3792518631448588E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>4.3535147920479591E-4</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Hang Seng : 100%</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2.6134262704790408E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>-1.40472275683988E-4</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>S&amp;P 500 : 100%</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2.9493816030783111E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>-1.37027310019381E-3</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>CAC40 : 100%</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2.557685611329244E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>-2.385688361271439E-4</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>CAC40 : 15%
-S&amp;P 500 : 70%
-Hang Seng : 15%</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="A2">
-            <v>2.9493816030783111E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>-1.37027310019381E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2.5946509483569351E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>-2.6345235813497048E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2.589796185441803E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>-3.2494239936046131E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2.587989558544369E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>-3.8643244058595197E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2.589237448135424E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>-4.4792248181144362E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2.907777022501672E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>-1.3087830589683189E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2.5935354451415159E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>-5.0941252303693526E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2.6008684284812171E-2</v>
-          </cell>
-          <cell r="B9">
-            <v>-5.7090256426242604E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2.611210829102412E-2</v>
-          </cell>
-          <cell r="B10">
-            <v>-6.3239260548791682E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2.6245270698660079E-2</v>
-          </cell>
-          <cell r="B11">
-            <v>-6.9388264671340792E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2.6134262704790408E-2</v>
-          </cell>
-          <cell r="B12">
-            <v>-1.40472275683988E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2.6407721638913861E-2</v>
-          </cell>
-          <cell r="B13">
-            <v>-7.5537268793889913E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2.6598924484636841E-2</v>
-          </cell>
-          <cell r="B14">
-            <v>-8.1686272916439056E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2.602536789399252E-2</v>
-          </cell>
-          <cell r="B15">
-            <v>-2.019623169094794E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2.8683266061045039E-2</v>
-          </cell>
-          <cell r="B16">
-            <v>-1.2472930177428281E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2.7065056942623261E-2</v>
-          </cell>
-          <cell r="B17">
-            <v>-9.3984281161537287E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2.7338559020080269E-2</v>
-          </cell>
-          <cell r="B18">
-            <v>-1.0013328528408641E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.831120407307269E-2</v>
-          </cell>
-          <cell r="B19">
-            <v>-1.185802976517337E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2.7637977580677361E-2</v>
-          </cell>
-          <cell r="B20">
-            <v>-1.062822894066355E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2.6818264276218671E-2</v>
-          </cell>
-          <cell r="B21">
-            <v>-8.7835277038988187E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2.796248010592544E-2</v>
-          </cell>
-          <cell r="B22">
-            <v>-1.1243129352918461E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>-6.5364022119982694E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>-3.8739808944915702E-5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>-1.0022985017040731E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>-1.022580468552774E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>-1.6171989139589761E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>-2.2320993262138931E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>-9.6109042732728277E-4</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>-3.4619001507237132E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>-8.9960038610179145E-4</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>-4.0768005629786269E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>-8.3811034487630057E-4</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>-4.6917009752335369E-4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>-7.7662030365080925E-4</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2.2750232280575231E-5</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>8.4240273506066651E-5</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>-5.9215017997433551E-4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>-7.1513026242531782E-4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>-2.8469997384688033E-4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>-5.3066013874884517E-4</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.1066532162165568E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>-2.3383374047734369E-4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>-4.1830386415381748E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>-7.2575407028127288E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.212642442462007E-5</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>1.3510650687560241E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>7.3616465650111943E-5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>1.9659654810109381E-4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>-5.4128394660479958E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>-2.9532378170283539E-4</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>-6.0277398783029101E-4</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>-6.64264029055782E-4</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>-1.108536580263618E-4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>-1.723436992518531E-4</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>-7.8724411150676464E-4</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>-8.4873415273225552E-4</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>-3.5681382292832649E-4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>-4.9363616800871169E-5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>-4.7979390537930859E-4</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>3.08952822696121E-4</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>6.2992657794156339E-5</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>-5.9987424656825729E-5</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>1.2448269901964759E-4</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>-1.8296750710780819E-4</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>-4.9041771323526365E-4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>-1.2147746588231699E-4</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>-3.674376307842815E-4</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>-4.2892767200977249E-4</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>-2.4445754833329918E-4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>-6.7488783691173663E-4</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>-6.1339779568624596E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>2.4746278147062969E-4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>-3.0594758955879001E-4</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>1.8597274024513869E-4</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>-5.5190775446075464E-4</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>1.502616568665413E-6</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>-2.5508135618925441E-4</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>4.2130909729114831E-4</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>1.7534893238918401E-4</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>-1.3210127373827161E-4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>-9.1211912872894018E-6</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>-3.7806143864023618E-4</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>2.9832901484016632E-4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>1.1385889116369271E-4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>5.2368849938201488E-5</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>-3.1657139741474529E-4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>3.5981905606565688E-4</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>2.36838973614675E-4</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>-7.0611232512780668E-5</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>-5.0104152109121849E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>-1.9359131496376301E-4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>-4.3955147986572739E-4</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>5.3366537188617551E-4</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>1.64725124533229E-4</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>2.2621516575871981E-4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>-2.042151228197182E-4</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>-1.4272508159422699E-4</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>-8.1235040368735472E-5</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>-1.974499914324419E-5</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>4.1068528943519309E-4</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>-2.6570516404520909E-4</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>3.4919524820970209E-4</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>4.1745042082246583E-5</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>-3.2719520527070041E-4</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>1.032350833077377E-4</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>2.8770520698421121E-4</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>4.7217533066068441E-4</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>-3.0368806999199692E-5</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>9.2611275451782597E-5</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>2.1559135790276521E-4</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>2.7708139912825609E-4</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>3.1121234226291068E-5</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>1.5410131667727359E-4</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>3.3857144035374698E-4</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>-1.533488894501817E-4</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>4.0006148157923841E-4</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>5.8453160525571177E-4</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>4.6155152280472951E-4</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>5.2304156403022055E-4</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>-9.1858848224690641E-5</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>6.4602164648120265E-4</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>7.5837792107623001E-4</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>5.1241775617426549E-4</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>3.2794763249779219E-4</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>2.6645759127230109E-4</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>6.9688787985073902E-4</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>2.0497426370336451E-5</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>4.5092771494877472E-4</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>1.4347750882131921E-4</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>2.049675500468099E-4</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>3.894376737232834E-4</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>6.3539783862524781E-4</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>5.7390779739975649E-4</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>8.1987467595827441E-5</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>6.8626407199478417E-4</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>3.1732382464183729E-4</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>3.7881386586732828E-4</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>8.7073419567125748E-4</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>7.4775411322027517E-4</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>1.943437421908549E-4</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>2.5583378341634608E-4</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>6.2477403076929296E-4</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>4.4030390709281949E-4</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>5.0179394831831054E-4</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>8.0924415444576616E-4</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>5.6328398954380175E-4</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>-1.196426784373292E-3</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>-5.8152637211838078E-4</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>-1.1349367431478009E-3</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>-1.07344670192231E-3</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>-1.0119566606968189E-3</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>-9.5046661947132771E-4</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>-3.3556620721641658E-4</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>-7.6599649579485397E-4</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>-8.2748653702034562E-4</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>-8.8897657824583629E-4</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>-5.2003633089289011E-4</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>-2.8116001088961041E-5</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>-7.045064545693632E-4</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>-3.9705624844190731E-4</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>-2.7407616599092521E-4</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>-2.1258612476543419E-4</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>-6.4301641334387209E-4</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>-8.9606042314451648E-5</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>-4.5854628966739841E-4</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>-1.510960835399426E-4</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>9.8309047026628473E-4</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>6.1415022291333768E-4</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>9.2160042904079341E-4</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>7.3713030536432021E-4</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>3.6819005801137338E-4</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>5.5266018168784647E-4</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>6.7564026413882911E-4</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>7.9862034658981121E-4</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>8.6011038781530242E-4</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>4.2968009923686438E-4</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>4.911701404623557E-4</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>6.0352641505738241E-4</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>9.1097662118483846E-4</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>9.7246666241032989E-4</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>5.4203637383189174E-4</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>6.6501645628287416E-4</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>8.4948657995934757E-4</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>1.0954467448613121E-3</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>1.033956703635821E-3</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>7.2650649750836504E-4</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>7.8799653873385658E-4</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>1.0233328957798659E-3</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>9.0035281332888329E-4</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>1.084822937005357E-3</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>9.6184285455437461E-4</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>1.207803019456339E-3</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>8.388627721033923E-4</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>1.1463129782308479E-3</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>7.158826896524102E-4</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>7.773727308779013E-4</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>1.3201592940513659E-3</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>1.1356891703748931E-3</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>1.197179211600384E-3</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>1.074199129149402E-3</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202">
-            <v>9.5121904669841976E-4</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203">
-            <v>1.2586692528258759E-3</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>1.0127090879239111E-3</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>8.8972900547292855E-4</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>1.0635753212934469E-3</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>1.3710255274209031E-3</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>1.4325155686463931E-3</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>1.3095354861954111E-3</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>1.125065362518938E-3</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>1.24804544496992E-3</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212">
-            <v>1.1865554037444289E-3</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>1.5448718432414211E-3</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>1.4218917607904391E-3</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>1.2374216371139649E-3</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>1.360401719564948E-3</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>1.2989116783394569E-3</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>1.48338180201593E-3</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>1.4727579941599749E-3</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>1.411267952934484E-3</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>1.5957380766109569E-3</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>1.6572281178364491E-3</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>1.534248035385466E-3</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>1.769584392431476E-3</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>1.7080943512059849E-3</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>1.646604309980493E-3</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>1.5851142687550021E-3</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>1.7589605845755201E-3</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>1.8204506258010121E-3</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>1.881940667026503E-3</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>1.9942969416215299E-3</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>1.9328069003960379E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>2.1066532162165568E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-1.40472275683988E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>-1.37027310019381E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>4.7217533066068441E-4</v>
           </cell>
         </row>
       </sheetData>
@@ -10989,6 +9755,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -11171,33 +9946,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE9A935-8E58-408C-BAB5-61DE2923C560}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41414027-D3AB-4939-916D-9C4532D60A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11214,12 +9988,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE9A935-8E58-408C-BAB5-61DE2923C560}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>